--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2665574.54544939</v>
+        <v>2665187.496886135</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>248264.730014872</v>
+        <v>248264.7300148755</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736558</v>
+        <v>504792.0292736549</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8323790.666159002</v>
+        <v>8323790.666159003</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>35.14919658349728</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>298.7773153645669</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -753,10 +753,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>3.78415399743876</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>50.40340496236198</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>26.005484972096</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
@@ -911,7 +911,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>120.0082831938462</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>223.9872575436855</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>67.852979505384</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -1035,13 +1035,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>198.7101451775291</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>111.6201818252817</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>126.0224895306994</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>244.3773146885356</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -1218,19 +1218,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>74.25201978836913</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>49.67353352483909</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>42.98873945912786</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C11" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>255.6655596168399</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>249.4435719504924</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G11" t="n">
-        <v>298.5127811721451</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.70374975759161</v>
+        <v>71.92652010774083</v>
       </c>
       <c r="T11" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
-        <v>138.9063174149372</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V11" t="n">
         <v>220.1793158548093</v>
@@ -1455,7 +1455,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>124.2912761025072</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -1467,7 +1467,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
-        <v>121.493002135362</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
         <v>186.7982527956746</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.28964948932729</v>
+        <v>68.28964948932727</v>
       </c>
       <c r="C13" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472776</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230615</v>
       </c>
       <c r="E13" t="n">
-        <v>37.05875858808561</v>
+        <v>37.0587585880856</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52568291627192</v>
+        <v>37.5256829162719</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761974</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031016</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513951</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355682</v>
       </c>
       <c r="S13" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214056</v>
       </c>
       <c r="T13" t="n">
         <v>117.4169981442692</v>
@@ -1591,7 +1591,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X13" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y13" t="n">
         <v>106.3846417114369</v>
@@ -1607,22 +1607,22 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
-        <v>77.2090845720525</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D14" t="n">
         <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>296.5795132747226</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5127811721451</v>
+        <v>44.87269158943714</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V14" t="n">
         <v>220.1793158548093</v>
@@ -1670,10 +1670,10 @@
         <v>245.4794153327662</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1762713617116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1698,10 +1698,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>38.47629877891847</v>
       </c>
       <c r="H15" t="n">
-        <v>9.973562680740013</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
         <v>67.69846245683961</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>219.014077319547</v>
+        <v>219.0140773195469</v>
       </c>
       <c r="C17" t="n">
-        <v>207.0253942772295</v>
+        <v>207.0253942772287</v>
       </c>
       <c r="D17" t="n">
         <v>198.0066983217567</v>
       </c>
       <c r="E17" t="n">
-        <v>219.7488358916623</v>
+        <v>219.7488358916622</v>
       </c>
       <c r="F17" t="n">
         <v>238.9206519796394</v>
@@ -1859,7 +1859,7 @@
         <v>240.8539198770619</v>
       </c>
       <c r="H17" t="n">
-        <v>158.4040348553719</v>
+        <v>158.4040348553718</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.26765881265763</v>
+        <v>14.26765881265757</v>
       </c>
       <c r="T17" t="n">
-        <v>51.02633000300699</v>
+        <v>51.02633000300693</v>
       </c>
       <c r="U17" t="n">
-        <v>81.24745611985395</v>
+        <v>81.24745611985389</v>
       </c>
       <c r="V17" t="n">
         <v>162.5204545597261</v>
@@ -1910,7 +1910,7 @@
         <v>207.1208122704296</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.5174100666284</v>
+        <v>218.5174100666283</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1932,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>112.0804063284341</v>
       </c>
       <c r="G18" t="n">
         <v>127.4412149769483</v>
@@ -1941,7 +1941,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>121.493002135362</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
         <v>186.7982527956746</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.63078819424408</v>
+        <v>10.63078819424402</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.48363816705736</v>
+        <v>40.48363816705731</v>
       </c>
       <c r="T19" t="n">
-        <v>59.758136849186</v>
+        <v>59.75813684918595</v>
       </c>
       <c r="U19" t="n">
-        <v>113.2293103124992</v>
+        <v>113.2293103124991</v>
       </c>
       <c r="V19" t="n">
-        <v>87.03892459386967</v>
+        <v>87.03892459386961</v>
       </c>
       <c r="W19" t="n">
         <v>112.2058106644829</v>
       </c>
       <c r="X19" t="n">
-        <v>57.85091266028604</v>
+        <v>57.85091266028599</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.72578041635373</v>
+        <v>48.72578041635367</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.014077319547</v>
+        <v>219.0140773195469</v>
       </c>
       <c r="C20" t="n">
         <v>207.0253942772287</v>
       </c>
       <c r="D20" t="n">
-        <v>198.0066983217567</v>
+        <v>198.0066983217566</v>
       </c>
       <c r="E20" t="n">
-        <v>219.7488358916623</v>
+        <v>219.7488358916622</v>
       </c>
       <c r="F20" t="n">
-        <v>238.9206519796394</v>
+        <v>238.9206519796393</v>
       </c>
       <c r="G20" t="n">
         <v>240.8539198770619</v>
       </c>
       <c r="H20" t="n">
-        <v>158.4040348553719</v>
+        <v>158.4040348553718</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.26765881265763</v>
+        <v>14.26765881265754</v>
       </c>
       <c r="T20" t="n">
-        <v>51.02633000300699</v>
+        <v>51.0263300030069</v>
       </c>
       <c r="U20" t="n">
-        <v>81.24745611985395</v>
+        <v>81.24745611985387</v>
       </c>
       <c r="V20" t="n">
-        <v>162.5204545597261</v>
+        <v>162.520454559726</v>
       </c>
       <c r="W20" t="n">
-        <v>187.820554037683</v>
+        <v>187.8205540376829</v>
       </c>
       <c r="X20" t="n">
         <v>207.1208122704296</v>
       </c>
       <c r="Y20" t="n">
-        <v>218.5174100666284</v>
+        <v>218.5174100666283</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2163,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>116.1837968984993</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
@@ -2175,7 +2175,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>77.67202513757962</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.63078819424408</v>
+        <v>10.63078819424399</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>40.48363816705736</v>
+        <v>40.48363816705728</v>
       </c>
       <c r="T22" t="n">
-        <v>59.758136849186</v>
+        <v>59.75813684918592</v>
       </c>
       <c r="U22" t="n">
-        <v>113.2293103124992</v>
+        <v>113.2293103124991</v>
       </c>
       <c r="V22" t="n">
-        <v>87.03892459386967</v>
+        <v>87.03892459386958</v>
       </c>
       <c r="W22" t="n">
-        <v>112.2058106644829</v>
+        <v>112.2058106644828</v>
       </c>
       <c r="X22" t="n">
-        <v>57.85091266028604</v>
+        <v>57.85091266028596</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.72578041635373</v>
+        <v>48.72578041635364</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>219.014077319547</v>
+        <v>219.0140773195469</v>
       </c>
       <c r="C23" t="n">
         <v>207.0253942772287</v>
       </c>
       <c r="D23" t="n">
-        <v>198.0066983217567</v>
+        <v>198.0066983217566</v>
       </c>
       <c r="E23" t="n">
-        <v>219.7488358916623</v>
+        <v>219.7488358916622</v>
       </c>
       <c r="F23" t="n">
-        <v>238.9206519796394</v>
+        <v>238.9206519796393</v>
       </c>
       <c r="G23" t="n">
         <v>240.8539198770619</v>
       </c>
       <c r="H23" t="n">
-        <v>158.4040348553719</v>
+        <v>158.4040348553718</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.26765881265763</v>
+        <v>14.26765881265754</v>
       </c>
       <c r="T23" t="n">
-        <v>51.02633000300699</v>
+        <v>51.0263300030069</v>
       </c>
       <c r="U23" t="n">
-        <v>81.24745611985395</v>
+        <v>81.24745611985387</v>
       </c>
       <c r="V23" t="n">
-        <v>162.5204545597261</v>
+        <v>162.520454559726</v>
       </c>
       <c r="W23" t="n">
-        <v>187.820554037683</v>
+        <v>187.8205540376829</v>
       </c>
       <c r="X23" t="n">
         <v>207.1208122704296</v>
       </c>
       <c r="Y23" t="n">
-        <v>218.5174100666284</v>
+        <v>218.5174100666283</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2412,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>9.973562680739127</v>
       </c>
       <c r="I24" t="n">
         <v>67.69846245683961</v>
@@ -2448,7 +2448,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>97.83333659764521</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
         <v>216.3098444776729</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.63078819424408</v>
+        <v>10.63078819424399</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.48363816705736</v>
+        <v>40.48363816705728</v>
       </c>
       <c r="T25" t="n">
-        <v>59.758136849186</v>
+        <v>59.75813684918592</v>
       </c>
       <c r="U25" t="n">
-        <v>113.2293103124992</v>
+        <v>113.2293103124991</v>
       </c>
       <c r="V25" t="n">
-        <v>87.03892459386967</v>
+        <v>87.03892459386958</v>
       </c>
       <c r="W25" t="n">
-        <v>112.2058106644829</v>
+        <v>112.2058106644828</v>
       </c>
       <c r="X25" t="n">
-        <v>57.85091266028604</v>
+        <v>57.85091266028596</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.72578041635373</v>
+        <v>48.72578041635364</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>296.5795132747226</v>
       </c>
       <c r="G26" t="n">
-        <v>298.5127811721451</v>
+        <v>194.7080123814935</v>
       </c>
       <c r="H26" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774083</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T26" t="n">
-        <v>8.996842211789989</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W26" t="n">
         <v>245.4794153327662</v>
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133641</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E28" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F28" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2776,7 +2776,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X28" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y28" t="n">
         <v>106.3846417114369</v>
@@ -2798,7 +2798,7 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E29" t="n">
-        <v>277.4076971867455</v>
+        <v>173.6029283960932</v>
       </c>
       <c r="F29" t="n">
         <v>296.5795132747226</v>
@@ -2807,10 +2807,10 @@
         <v>298.5127811721451</v>
       </c>
       <c r="H29" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.30922517474033</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V29" t="n">
         <v>220.1793158548093</v>
@@ -2883,10 +2883,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>112.8757236914447</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326575</v>
       </c>
       <c r="I30" t="n">
         <v>67.69846245683961</v>
@@ -3029,25 +3029,25 @@
         <v>248.3672139752539</v>
       </c>
       <c r="C32" t="n">
-        <v>236.3785309329357</v>
+        <v>236.3785309329356</v>
       </c>
       <c r="D32" t="n">
-        <v>227.3598349774637</v>
+        <v>227.3598349774636</v>
       </c>
       <c r="E32" t="n">
-        <v>249.1019725473692</v>
+        <v>249.1019725473691</v>
       </c>
       <c r="F32" t="n">
-        <v>268.2737886353464</v>
+        <v>268.2737886353463</v>
       </c>
       <c r="G32" t="n">
-        <v>270.2070565327689</v>
+        <v>270.2070565327688</v>
       </c>
       <c r="H32" t="n">
         <v>187.7571715110788</v>
       </c>
       <c r="I32" t="n">
-        <v>29.35313665570695</v>
+        <v>29.35313665570689</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.62079546836458</v>
+        <v>43.62079546836452</v>
       </c>
       <c r="T32" t="n">
-        <v>80.37946665871394</v>
+        <v>80.37946665871388</v>
       </c>
       <c r="U32" t="n">
-        <v>110.6005927755609</v>
+        <v>110.6005927755608</v>
       </c>
       <c r="V32" t="n">
-        <v>191.8735912154331</v>
+        <v>191.873591215433</v>
       </c>
       <c r="W32" t="n">
-        <v>217.17369069339</v>
+        <v>217.1736906933899</v>
       </c>
       <c r="X32" t="n">
-        <v>236.4739489261366</v>
+        <v>236.4739489261365</v>
       </c>
       <c r="Y32" t="n">
         <v>247.8705467223353</v>
@@ -3123,10 +3123,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326556</v>
       </c>
       <c r="I33" t="n">
-        <v>53.13297117133623</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>39.98392484995102</v>
+        <v>39.98392484995097</v>
       </c>
       <c r="C34" t="n">
-        <v>26.18391969535151</v>
+        <v>26.18391969535145</v>
       </c>
       <c r="D34" t="n">
-        <v>9.805284092929895</v>
+        <v>9.805284092929838</v>
       </c>
       <c r="E34" t="n">
-        <v>8.753033948709344</v>
+        <v>8.753033948709287</v>
       </c>
       <c r="F34" t="n">
-        <v>9.219958276895653</v>
+        <v>9.219958276895596</v>
       </c>
       <c r="G34" t="n">
-        <v>25.49466099824349</v>
+        <v>25.49466099824343</v>
       </c>
       <c r="H34" t="n">
-        <v>16.04302862093391</v>
+        <v>16.04302862093385</v>
       </c>
       <c r="I34" t="n">
-        <v>1.025123805763258</v>
+        <v>1.025123805763201</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.290673424180568</v>
+        <v>6.290673424180511</v>
       </c>
       <c r="S34" t="n">
-        <v>69.83677482276431</v>
+        <v>69.83677482276426</v>
       </c>
       <c r="T34" t="n">
-        <v>89.11127350489295</v>
+        <v>89.11127350489289</v>
       </c>
       <c r="U34" t="n">
         <v>142.5824469682061</v>
@@ -3247,13 +3247,13 @@
         <v>116.3920612495766</v>
       </c>
       <c r="W34" t="n">
-        <v>141.5589473201899</v>
+        <v>141.5589473201898</v>
       </c>
       <c r="X34" t="n">
-        <v>87.20404931599299</v>
+        <v>87.20404931599293</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.07891707206068</v>
+        <v>78.07891707206062</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T36" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U36" t="n">
         <v>216.3098444776729</v>
@@ -3597,7 +3597,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326568</v>
       </c>
       <c r="I39" t="n">
         <v>67.69846245683961</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.5454454620316</v>
+        <v>229.5454454620315</v>
       </c>
       <c r="C41" t="n">
         <v>217.5567624197133</v>
       </c>
       <c r="D41" t="n">
-        <v>208.5380664642413</v>
+        <v>208.5380664642412</v>
       </c>
       <c r="E41" t="n">
         <v>230.2802040341468</v>
       </c>
       <c r="F41" t="n">
-        <v>249.452020122124</v>
+        <v>165.8809228973815</v>
       </c>
       <c r="G41" t="n">
         <v>251.3852880195465</v>
@@ -3758,7 +3758,7 @@
         <v>168.9354029978564</v>
       </c>
       <c r="I41" t="n">
-        <v>10.53136814248455</v>
+        <v>10.53136814248452</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.79902695514218</v>
+        <v>24.79902695514215</v>
       </c>
       <c r="T41" t="n">
-        <v>61.55769814549154</v>
+        <v>61.55769814549151</v>
       </c>
       <c r="U41" t="n">
-        <v>8.207727037595472</v>
+        <v>91.77882426233847</v>
       </c>
       <c r="V41" t="n">
-        <v>173.0518227022107</v>
+        <v>173.0518227022106</v>
       </c>
       <c r="W41" t="n">
-        <v>198.3519221801676</v>
+        <v>198.3519221801675</v>
       </c>
       <c r="X41" t="n">
         <v>217.6521804129142</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.048778209113</v>
+        <v>229.0487782091129</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>53.13297117133636</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.16215633672863</v>
+        <v>21.1621563367286</v>
       </c>
       <c r="C43" t="n">
-        <v>7.362151182129111</v>
+        <v>7.362151182129082</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.672892485021094</v>
+        <v>6.672892485021066</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>51.01500630954192</v>
+        <v>51.01500630954189</v>
       </c>
       <c r="T43" t="n">
-        <v>70.28950499167055</v>
+        <v>70.28950499167053</v>
       </c>
       <c r="U43" t="n">
         <v>123.7606784549837</v>
       </c>
       <c r="V43" t="n">
-        <v>97.57029273635422</v>
+        <v>97.57029273635419</v>
       </c>
       <c r="W43" t="n">
-        <v>122.7371788069675</v>
+        <v>122.7371788069674</v>
       </c>
       <c r="X43" t="n">
-        <v>68.38228080277059</v>
+        <v>68.38228080277057</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.25714855883828</v>
+        <v>59.25714855883825</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>229.5454454620315</v>
       </c>
       <c r="C44" t="n">
-        <v>217.5567624197133</v>
+        <v>144.5170333374555</v>
       </c>
       <c r="D44" t="n">
         <v>208.5380664642412</v>
@@ -4028,10 +4028,10 @@
         <v>24.79902695514215</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>61.55769814549151</v>
       </c>
       <c r="U44" t="n">
-        <v>80.29679332557265</v>
+        <v>91.77882426233847</v>
       </c>
       <c r="V44" t="n">
         <v>173.0518227022106</v>
@@ -4071,10 +4071,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326568</v>
       </c>
       <c r="I45" t="n">
-        <v>53.1329711713359</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1806.049172249033</v>
+        <v>536.6523989434281</v>
       </c>
       <c r="C2" t="n">
-        <v>1806.049172249033</v>
+        <v>536.6523989434281</v>
       </c>
       <c r="D2" t="n">
-        <v>1770.544933275803</v>
+        <v>536.6523989434281</v>
       </c>
       <c r="E2" t="n">
-        <v>1375.75921338191</v>
+        <v>536.6523989434281</v>
       </c>
       <c r="F2" t="n">
-        <v>961.6080226920803</v>
+        <v>526.5416122940026</v>
       </c>
       <c r="G2" t="n">
-        <v>545.5040361462683</v>
+        <v>514.4780297885945</v>
       </c>
       <c r="H2" t="n">
-        <v>212.6827617435776</v>
+        <v>212.6827617435775</v>
       </c>
       <c r="I2" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="J2" t="n">
-        <v>111.8641072251792</v>
+        <v>111.8641072251791</v>
       </c>
       <c r="K2" t="n">
-        <v>352.004479269962</v>
+        <v>352.0044792699619</v>
       </c>
       <c r="L2" t="n">
-        <v>699.8898523549083</v>
+        <v>699.8898523549082</v>
       </c>
       <c r="M2" t="n">
         <v>1093.129018607996</v>
@@ -4343,37 +4343,37 @@
         <v>1471.460377295712</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.464961768546</v>
+        <v>1765.12125116262</v>
       </c>
       <c r="P2" t="n">
-        <v>1993.278147618679</v>
+        <v>1993.278147618673</v>
       </c>
       <c r="Q2" t="n">
-        <v>1993.278147618679</v>
+        <v>1993.278147618673</v>
       </c>
       <c r="R2" t="n">
-        <v>1993.278147618679</v>
+        <v>1902.639861114527</v>
       </c>
       <c r="S2" t="n">
-        <v>1806.049172249033</v>
+        <v>1715.41088574488</v>
       </c>
       <c r="T2" t="n">
-        <v>1806.049172249033</v>
+        <v>1491.051939475892</v>
       </c>
       <c r="U2" t="n">
-        <v>1806.049172249033</v>
+        <v>1236.166603189886</v>
       </c>
       <c r="V2" t="n">
-        <v>1806.049172249033</v>
+        <v>899.1873290858271</v>
       </c>
       <c r="W2" t="n">
-        <v>1806.049172249033</v>
+        <v>536.6523989434281</v>
       </c>
       <c r="X2" t="n">
-        <v>1806.049172249033</v>
+        <v>536.6523989434281</v>
       </c>
       <c r="Y2" t="n">
-        <v>1806.049172249033</v>
+        <v>536.6523989434281</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>754.6805584663673</v>
+        <v>754.6805584663618</v>
       </c>
       <c r="C3" t="n">
-        <v>592.976885707322</v>
+        <v>592.9768857073166</v>
       </c>
       <c r="D3" t="n">
-        <v>454.1382486975341</v>
+        <v>454.1382486975286</v>
       </c>
       <c r="E3" t="n">
-        <v>307.1102387544053</v>
+        <v>454.1382486975286</v>
       </c>
       <c r="F3" t="n">
-        <v>172.4164407042797</v>
+        <v>319.444450647403</v>
       </c>
       <c r="G3" t="n">
-        <v>43.68794072756424</v>
+        <v>190.7159506706875</v>
       </c>
       <c r="H3" t="n">
-        <v>39.86556295237357</v>
+        <v>90.77809321738557</v>
       </c>
       <c r="I3" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="J3" t="n">
-        <v>100.1197094854797</v>
+        <v>100.1197094854796</v>
       </c>
       <c r="K3" t="n">
-        <v>100.1197094854797</v>
+        <v>329.6102620456683</v>
       </c>
       <c r="L3" t="n">
-        <v>162.8409527273869</v>
+        <v>695.4321072157838</v>
       </c>
       <c r="M3" t="n">
-        <v>647.8743062376134</v>
+        <v>695.4321072157838</v>
       </c>
       <c r="N3" t="n">
-        <v>1141.210647773236</v>
+        <v>1188.768448751405</v>
       </c>
       <c r="O3" t="n">
-        <v>1533.410598557387</v>
+        <v>1580.968399535556</v>
       </c>
       <c r="P3" t="n">
-        <v>1835.506517833084</v>
+        <v>1835.506517833079</v>
       </c>
       <c r="Q3" t="n">
-        <v>1993.278147618679</v>
+        <v>1993.278147618673</v>
       </c>
       <c r="R3" t="n">
-        <v>1933.493878713625</v>
+        <v>1933.493878713619</v>
       </c>
       <c r="S3" t="n">
-        <v>1780.694391726365</v>
+        <v>1780.694391726359</v>
       </c>
       <c r="T3" t="n">
-        <v>1592.00928789235</v>
+        <v>1592.009287892344</v>
       </c>
       <c r="U3" t="n">
-        <v>1373.51449549066</v>
+        <v>1373.514495490655</v>
       </c>
       <c r="V3" t="n">
-        <v>1145.118872938994</v>
+        <v>1145.118872938988</v>
       </c>
       <c r="W3" t="n">
-        <v>1145.118872938994</v>
+        <v>1145.118872938988</v>
       </c>
       <c r="X3" t="n">
-        <v>947.2018848167885</v>
+        <v>947.201884816783</v>
       </c>
       <c r="Y3" t="n">
-        <v>754.6805584663673</v>
+        <v>754.6805584663618</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>396.1348601742035</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="C4" t="n">
-        <v>396.1348601742035</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="D4" t="n">
-        <v>396.1348601742035</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="E4" t="n">
-        <v>244.1258459355223</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="F4" t="n">
-        <v>244.1258459355223</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="G4" t="n">
-        <v>244.1258459355223</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="H4" t="n">
-        <v>244.1258459355223</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="I4" t="n">
-        <v>99.92280153820084</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="J4" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="K4" t="n">
-        <v>73.46975069701699</v>
+        <v>73.46975069701688</v>
       </c>
       <c r="L4" t="n">
-        <v>174.0768300972765</v>
+        <v>174.0768300972764</v>
       </c>
       <c r="M4" t="n">
-        <v>292.0703362248782</v>
+        <v>292.0703362248781</v>
       </c>
       <c r="N4" t="n">
-        <v>410.4926779744786</v>
+        <v>410.4926779744785</v>
       </c>
       <c r="O4" t="n">
-        <v>508.9563244701683</v>
+        <v>508.9563244701682</v>
       </c>
       <c r="P4" t="n">
-        <v>571.9248081983061</v>
+        <v>571.924808198306</v>
       </c>
       <c r="Q4" t="n">
-        <v>545.6566415598253</v>
+        <v>559.2009176192955</v>
       </c>
       <c r="R4" t="n">
-        <v>396.1348601742035</v>
+        <v>559.2009176192955</v>
       </c>
       <c r="S4" t="n">
-        <v>396.1348601742035</v>
+        <v>559.2009176192955</v>
       </c>
       <c r="T4" t="n">
-        <v>396.1348601742035</v>
+        <v>326.0219644349743</v>
       </c>
       <c r="U4" t="n">
-        <v>396.1348601742035</v>
+        <v>326.0219644349743</v>
       </c>
       <c r="V4" t="n">
-        <v>396.1348601742035</v>
+        <v>326.0219644349743</v>
       </c>
       <c r="W4" t="n">
-        <v>396.1348601742035</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="X4" t="n">
-        <v>396.1348601742035</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="Y4" t="n">
-        <v>396.1348601742035</v>
+        <v>39.86556295237347</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.03993210720715</v>
+        <v>789.646926403791</v>
       </c>
       <c r="C5" t="n">
-        <v>62.03993210720715</v>
+        <v>789.646926403791</v>
       </c>
       <c r="D5" t="n">
-        <v>62.03993210720715</v>
+        <v>789.646926403791</v>
       </c>
       <c r="E5" t="n">
-        <v>62.03993210720715</v>
+        <v>394.8612065098978</v>
       </c>
       <c r="F5" t="n">
-        <v>51.92914545778154</v>
+        <v>384.7504198604722</v>
       </c>
       <c r="G5" t="n">
-        <v>39.86556295237357</v>
+        <v>372.6868373550642</v>
       </c>
       <c r="H5" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="I5" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="J5" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="K5" t="n">
         <v>280.0059349971563</v>
@@ -4583,34 +4583,34 @@
         <v>1704.46641749574</v>
       </c>
       <c r="P5" t="n">
-        <v>1932.623313951793</v>
+        <v>1898.845893932136</v>
       </c>
       <c r="Q5" t="n">
-        <v>1993.278147618679</v>
+        <v>1993.278147618673</v>
       </c>
       <c r="R5" t="n">
-        <v>1902.639861114532</v>
+        <v>1902.639861114527</v>
       </c>
       <c r="S5" t="n">
-        <v>1715.410885744886</v>
+        <v>1715.41088574488</v>
       </c>
       <c r="T5" t="n">
-        <v>1715.410885744886</v>
+        <v>1715.41088574488</v>
       </c>
       <c r="U5" t="n">
-        <v>1715.410885744886</v>
+        <v>1715.41088574488</v>
       </c>
       <c r="V5" t="n">
-        <v>1594.190397670294</v>
+        <v>1378.431611640822</v>
       </c>
       <c r="W5" t="n">
-        <v>1231.655467527895</v>
+        <v>1015.896681498423</v>
       </c>
       <c r="X5" t="n">
-        <v>849.6253270493883</v>
+        <v>1015.896681498423</v>
       </c>
       <c r="Y5" t="n">
-        <v>456.0834716252263</v>
+        <v>789.646926403791</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>690.5119660244002</v>
+        <v>583.2289011579752</v>
       </c>
       <c r="C6" t="n">
-        <v>528.8082932653549</v>
+        <v>421.5252283989299</v>
       </c>
       <c r="D6" t="n">
-        <v>389.969656255567</v>
+        <v>421.5252283989299</v>
       </c>
       <c r="E6" t="n">
-        <v>242.9416463124382</v>
+        <v>274.4972184558011</v>
       </c>
       <c r="F6" t="n">
-        <v>108.2478482623126</v>
+        <v>139.8034204056754</v>
       </c>
       <c r="G6" t="n">
-        <v>108.2478482623126</v>
+        <v>139.8034204056754</v>
       </c>
       <c r="H6" t="n">
-        <v>108.2478482623126</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="I6" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="J6" t="n">
-        <v>100.1197094854797</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="K6" t="n">
-        <v>329.6102620456684</v>
+        <v>269.3561155125622</v>
       </c>
       <c r="L6" t="n">
-        <v>695.4321072157841</v>
+        <v>635.1779606826778</v>
       </c>
       <c r="M6" t="n">
-        <v>1180.46546072601</v>
+        <v>1120.211314192904</v>
       </c>
       <c r="N6" t="n">
-        <v>1673.801802261633</v>
+        <v>1141.210647773231</v>
       </c>
       <c r="O6" t="n">
-        <v>1993.278147618679</v>
+        <v>1533.410598557382</v>
       </c>
       <c r="P6" t="n">
-        <v>1993.278147618679</v>
+        <v>1835.506517833079</v>
       </c>
       <c r="Q6" t="n">
-        <v>1993.278147618679</v>
+        <v>1993.278147618673</v>
       </c>
       <c r="R6" t="n">
-        <v>1993.278147618679</v>
+        <v>1933.493878713619</v>
       </c>
       <c r="S6" t="n">
-        <v>1924.739784481927</v>
+        <v>1780.694391726359</v>
       </c>
       <c r="T6" t="n">
-        <v>1736.054680647912</v>
+        <v>1780.694391726359</v>
       </c>
       <c r="U6" t="n">
-        <v>1517.559888246222</v>
+        <v>1562.199599324669</v>
       </c>
       <c r="V6" t="n">
-        <v>1289.164265694556</v>
+        <v>1333.803976773003</v>
       </c>
       <c r="W6" t="n">
-        <v>1047.848396927866</v>
+        <v>1133.086658411863</v>
       </c>
       <c r="X6" t="n">
-        <v>849.931408805661</v>
+        <v>935.1696702896573</v>
       </c>
       <c r="Y6" t="n">
-        <v>849.931408805661</v>
+        <v>742.6483439392362</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>152.6132213617491</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="C7" t="n">
-        <v>152.6132213617491</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="D7" t="n">
-        <v>152.6132213617491</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="E7" t="n">
-        <v>152.6132213617491</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="F7" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="G7" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="H7" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="I7" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="J7" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="K7" t="n">
-        <v>73.46975069701699</v>
+        <v>73.46975069701688</v>
       </c>
       <c r="L7" t="n">
-        <v>174.0768300972765</v>
+        <v>174.0768300972764</v>
       </c>
       <c r="M7" t="n">
-        <v>292.0703362248782</v>
+        <v>292.0703362248781</v>
       </c>
       <c r="N7" t="n">
-        <v>410.4926779744786</v>
+        <v>410.4926779744785</v>
       </c>
       <c r="O7" t="n">
-        <v>508.9563244701683</v>
+        <v>508.9563244701682</v>
       </c>
       <c r="P7" t="n">
-        <v>571.9248081983061</v>
+        <v>571.924808198306</v>
       </c>
       <c r="Q7" t="n">
-        <v>533.3874668519951</v>
+        <v>571.924808198306</v>
       </c>
       <c r="R7" t="n">
-        <v>383.8656854663733</v>
+        <v>571.924808198306</v>
       </c>
       <c r="S7" t="n">
-        <v>383.8656854663733</v>
+        <v>571.924808198306</v>
       </c>
       <c r="T7" t="n">
-        <v>383.8656854663733</v>
+        <v>571.924808198306</v>
       </c>
       <c r="U7" t="n">
-        <v>383.8656854663733</v>
+        <v>571.924808198306</v>
       </c>
       <c r="V7" t="n">
-        <v>383.8656854663733</v>
+        <v>326.0219644349743</v>
       </c>
       <c r="W7" t="n">
-        <v>383.8656854663733</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="X7" t="n">
-        <v>152.6132213617491</v>
+        <v>39.86556295237347</v>
       </c>
       <c r="Y7" t="n">
-        <v>152.6132213617491</v>
+        <v>39.86556295237347</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>237.0158240472368</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="C8" t="n">
-        <v>237.0158240472368</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="D8" t="n">
-        <v>237.0158240472368</v>
+        <v>458.984345149926</v>
       </c>
       <c r="E8" t="n">
-        <v>237.0158240472368</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F8" t="n">
-        <v>226.9050373978112</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4829,25 +4829,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>1876.853858790972</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U8" t="n">
-        <v>1621.968522504967</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V8" t="n">
-        <v>1375.122750092304</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="W8" t="n">
-        <v>1012.587819949905</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="X8" t="n">
-        <v>630.5576794713988</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="Y8" t="n">
-        <v>237.0158240472368</v>
+        <v>959.1037538931058</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>624.2883738632869</v>
+        <v>614.6793913469587</v>
       </c>
       <c r="C9" t="n">
-        <v>462.5847011042416</v>
+        <v>452.9757185879134</v>
       </c>
       <c r="D9" t="n">
-        <v>323.7460640944537</v>
+        <v>314.1370815781255</v>
       </c>
       <c r="E9" t="n">
-        <v>176.7180541513249</v>
+        <v>314.1370815781255</v>
       </c>
       <c r="F9" t="n">
-        <v>42.02425610119923</v>
+        <v>314.1370815781255</v>
       </c>
       <c r="G9" t="n">
-        <v>42.02425610119923</v>
+        <v>185.4085816014101</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4884,49 +4884,49 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N9" t="n">
-        <v>1693.889799997958</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O9" t="n">
-        <v>2086.089750782109</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>2051.037518671235</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T9" t="n">
-        <v>1862.35241483722</v>
+        <v>1852.743432320892</v>
       </c>
       <c r="U9" t="n">
-        <v>1643.85762243553</v>
+        <v>1634.248639919202</v>
       </c>
       <c r="V9" t="n">
-        <v>1415.461999883864</v>
+        <v>1405.853017367536</v>
       </c>
       <c r="W9" t="n">
-        <v>1174.146131117174</v>
+        <v>1164.537148600846</v>
       </c>
       <c r="X9" t="n">
-        <v>976.229142994969</v>
+        <v>966.6201604786407</v>
       </c>
       <c r="Y9" t="n">
-        <v>783.7078166445478</v>
+        <v>774.0988341282196</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>390.5281326627519</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>390.5281326627519</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>237.4562394905146</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>85.44722525183343</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
         <v>42.02425610119923</v>
@@ -4990,22 +4990,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1153.187541227112</v>
+        <v>859.3534917677373</v>
       </c>
       <c r="C11" t="n">
-        <v>885.8297073156855</v>
+        <v>859.3534917677373</v>
       </c>
       <c r="D11" t="n">
-        <v>627.5816672986753</v>
+        <v>601.1054517507273</v>
       </c>
       <c r="E11" t="n">
-        <v>627.5816672986753</v>
+        <v>349.1422477603311</v>
       </c>
       <c r="F11" t="n">
-        <v>627.5816672986753</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="G11" t="n">
-        <v>326.0536055086293</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="H11" t="n">
-        <v>107.8082558617052</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J11" t="n">
         <v>233.8613899522002</v>
       </c>
       <c r="K11" t="n">
-        <v>483.2464517155531</v>
+        <v>474.001761996983</v>
       </c>
       <c r="L11" t="n">
-        <v>831.1318248004993</v>
+        <v>821.8871350819293</v>
       </c>
       <c r="M11" t="n">
-        <v>1224.370991053587</v>
+        <v>1215.126301335017</v>
       </c>
       <c r="N11" t="n">
-        <v>1714.99821359443</v>
+        <v>1593.457660022733</v>
       </c>
       <c r="O11" t="n">
-        <v>2132.29866192039</v>
+        <v>2010.758108348693</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.455558376444</v>
+        <v>2351.210868657873</v>
       </c>
       <c r="Q11" t="n">
-        <v>2454.887812062981</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="R11" t="n">
-        <v>2478.349091313393</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="S11" t="n">
-        <v>2420.062475396634</v>
+        <v>2405.696040699513</v>
       </c>
       <c r="T11" t="n">
-        <v>2310.279453883411</v>
+        <v>2295.91301918629</v>
       </c>
       <c r="U11" t="n">
-        <v>2169.970042353172</v>
+        <v>2155.60360765605</v>
       </c>
       <c r="V11" t="n">
-        <v>1947.56669300488</v>
+        <v>1933.200258307758</v>
       </c>
       <c r="W11" t="n">
-        <v>1699.607687618248</v>
+        <v>1685.241252921126</v>
       </c>
       <c r="X11" t="n">
-        <v>1432.153471895508</v>
+        <v>1417.787037198386</v>
       </c>
       <c r="Y11" t="n">
-        <v>1153.187541227112</v>
+        <v>1138.82110652999</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>928.8797423283119</v>
+        <v>839.0161906131302</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1760695692666</v>
+        <v>677.3125178540849</v>
       </c>
       <c r="D12" t="n">
-        <v>628.3374325594787</v>
+        <v>538.473880844297</v>
       </c>
       <c r="E12" t="n">
-        <v>481.3094226163499</v>
+        <v>412.9271373064109</v>
       </c>
       <c r="F12" t="n">
-        <v>346.6156245662243</v>
+        <v>278.2333392562853</v>
       </c>
       <c r="G12" t="n">
-        <v>217.8871245895088</v>
+        <v>149.5048392795698</v>
       </c>
       <c r="H12" t="n">
-        <v>117.9492671362069</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="I12" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J12" t="n">
         <v>109.821128359374</v>
@@ -5133,37 +5133,37 @@
         <v>1701.432525723027</v>
       </c>
       <c r="O12" t="n">
-        <v>2093.632476507178</v>
+        <v>2018.481542252101</v>
       </c>
       <c r="P12" t="n">
-        <v>2395.728395782875</v>
+        <v>2320.577461527798</v>
       </c>
       <c r="Q12" t="n">
-        <v>2478.349091313393</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="R12" t="n">
-        <v>2478.349091313393</v>
+        <v>2418.564822408338</v>
       </c>
       <c r="S12" t="n">
-        <v>2355.62888713626</v>
+        <v>2265.765335421078</v>
       </c>
       <c r="T12" t="n">
-        <v>2166.943783302245</v>
+        <v>2077.080231587064</v>
       </c>
       <c r="U12" t="n">
-        <v>1948.448990900555</v>
+        <v>1858.585439185374</v>
       </c>
       <c r="V12" t="n">
-        <v>1720.053368348889</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W12" t="n">
-        <v>1478.737499582199</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X12" t="n">
-        <v>1280.820511459994</v>
+        <v>1190.956959744812</v>
       </c>
       <c r="Y12" t="n">
-        <v>1088.299185109573</v>
+        <v>998.4356333943912</v>
       </c>
     </row>
     <row r="13">
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.2084787095614</v>
+        <v>347.2084787095612</v>
       </c>
       <c r="C13" t="n">
         <v>292.1684339270082</v>
@@ -5182,34 +5182,34 @@
         <v>253.6724655105374</v>
       </c>
       <c r="E13" t="n">
-        <v>216.2393760276228</v>
+        <v>216.2393760276224</v>
       </c>
       <c r="F13" t="n">
-        <v>178.3346458091663</v>
+        <v>178.3346458091657</v>
       </c>
       <c r="G13" t="n">
-        <v>123.9908219327827</v>
+        <v>123.9908219327819</v>
       </c>
       <c r="H13" t="n">
-        <v>79.19410146782295</v>
+        <v>79.19410146782245</v>
       </c>
       <c r="I13" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J13" t="n">
         <v>103.0007461414249</v>
       </c>
       <c r="K13" t="n">
-        <v>248.900797739195</v>
+        <v>248.9007977391945</v>
       </c>
       <c r="L13" t="n">
-        <v>461.8037409925811</v>
+        <v>461.8037409925807</v>
       </c>
       <c r="M13" t="n">
-        <v>692.0931109733094</v>
+        <v>692.0931109733092</v>
       </c>
       <c r="N13" t="n">
-        <v>922.8113165760362</v>
+        <v>922.8113165760365</v>
       </c>
       <c r="O13" t="n">
         <v>1133.570826924853</v>
@@ -5230,19 +5230,19 @@
         <v>1130.677867206768</v>
       </c>
       <c r="U13" t="n">
-        <v>958.0635524516347</v>
+        <v>958.0635524516346</v>
       </c>
       <c r="V13" t="n">
-        <v>811.9041727658237</v>
+        <v>811.9041727658235</v>
       </c>
       <c r="W13" t="n">
-        <v>640.3236960389892</v>
+        <v>640.3236960389891</v>
       </c>
       <c r="X13" t="n">
-        <v>523.6471566901314</v>
+        <v>523.6471566901312</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.1879226381748</v>
+        <v>416.1879226381747</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1267.117119020718</v>
+        <v>1138.319422436133</v>
       </c>
       <c r="C14" t="n">
-        <v>1189.128144705513</v>
+        <v>870.9615885247065</v>
       </c>
       <c r="D14" t="n">
-        <v>930.8801046885036</v>
+        <v>612.7135485076971</v>
       </c>
       <c r="E14" t="n">
-        <v>650.6703095503767</v>
+        <v>612.7135485076971</v>
       </c>
       <c r="F14" t="n">
-        <v>351.0950436163135</v>
+        <v>313.1382825736338</v>
       </c>
       <c r="G14" t="n">
-        <v>49.56698182626786</v>
+        <v>267.8123314731922</v>
       </c>
       <c r="H14" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J14" t="n">
         <v>233.8613899522002</v>
       </c>
       <c r="K14" t="n">
-        <v>483.2464517155532</v>
+        <v>474.001761996983</v>
       </c>
       <c r="L14" t="n">
-        <v>943.4276886536261</v>
+        <v>821.8871350819293</v>
       </c>
       <c r="M14" t="n">
-        <v>1336.666854906714</v>
+        <v>1327.422165188144</v>
       </c>
       <c r="N14" t="n">
-        <v>1714.99821359443</v>
+        <v>1705.75352387586</v>
       </c>
       <c r="O14" t="n">
-        <v>2020.002798067264</v>
+        <v>2043.464077317675</v>
       </c>
       <c r="P14" t="n">
-        <v>2248.159694523317</v>
+        <v>2271.620973773729</v>
       </c>
       <c r="Q14" t="n">
-        <v>2454.887812062981</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="R14" t="n">
-        <v>2478.349091313393</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="S14" t="n">
-        <v>2405.696040699514</v>
+        <v>2405.696040699513</v>
       </c>
       <c r="T14" t="n">
-        <v>2295.913019186291</v>
+        <v>2295.91301918629</v>
       </c>
       <c r="U14" t="n">
-        <v>2295.913019186291</v>
+        <v>2155.60360765605</v>
       </c>
       <c r="V14" t="n">
-        <v>2073.509669837999</v>
+        <v>1933.200258307758</v>
       </c>
       <c r="W14" t="n">
-        <v>1825.550664451366</v>
+        <v>1685.241252921126</v>
       </c>
       <c r="X14" t="n">
-        <v>1825.550664451366</v>
+        <v>1417.787037198385</v>
       </c>
       <c r="Y14" t="n">
-        <v>1546.584733782971</v>
+        <v>1417.787037198385</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>839.0161906131311</v>
+        <v>839.0161906131302</v>
       </c>
       <c r="C15" t="n">
-        <v>677.3125178540859</v>
+        <v>677.3125178540849</v>
       </c>
       <c r="D15" t="n">
-        <v>538.4738808442979</v>
+        <v>538.473880844297</v>
       </c>
       <c r="E15" t="n">
-        <v>391.4458709011691</v>
+        <v>391.4458709011682</v>
       </c>
       <c r="F15" t="n">
-        <v>256.7520728510435</v>
+        <v>256.7520728510426</v>
       </c>
       <c r="G15" t="n">
-        <v>128.0235728743281</v>
+        <v>217.8871245895088</v>
       </c>
       <c r="H15" t="n">
         <v>117.9492671362069</v>
       </c>
       <c r="I15" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J15" t="n">
-        <v>49.56698182626786</v>
+        <v>109.821128359374</v>
       </c>
       <c r="K15" t="n">
-        <v>279.0575343864565</v>
+        <v>339.3116809195627</v>
       </c>
       <c r="L15" t="n">
-        <v>644.8793795565721</v>
+        <v>705.1335260896783</v>
       </c>
       <c r="M15" t="n">
-        <v>1129.912733066798</v>
+        <v>1190.166879599905</v>
       </c>
       <c r="N15" t="n">
-        <v>1641.178379189921</v>
+        <v>1626.28159146795</v>
       </c>
       <c r="O15" t="n">
-        <v>2033.378329974071</v>
+        <v>2018.481542252101</v>
       </c>
       <c r="P15" t="n">
-        <v>2335.474249249769</v>
+        <v>2320.577461527798</v>
       </c>
       <c r="Q15" t="n">
-        <v>2478.349091313393</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="R15" t="n">
-        <v>2418.564822408339</v>
+        <v>2418.564822408338</v>
       </c>
       <c r="S15" t="n">
-        <v>2265.765335421079</v>
+        <v>2265.765335421078</v>
       </c>
       <c r="T15" t="n">
-        <v>2077.080231587065</v>
+        <v>2077.080231587064</v>
       </c>
       <c r="U15" t="n">
-        <v>1858.585439185375</v>
+        <v>1858.585439185374</v>
       </c>
       <c r="V15" t="n">
-        <v>1630.189816633709</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W15" t="n">
-        <v>1388.873947867019</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X15" t="n">
-        <v>1190.956959744813</v>
+        <v>1190.956959744812</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4356333943921</v>
+        <v>998.4356333943912</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347.2084787095616</v>
+        <v>347.2084787095617</v>
       </c>
       <c r="C16" t="n">
-        <v>292.1684339270082</v>
+        <v>292.1684339270083</v>
       </c>
       <c r="D16" t="n">
         <v>253.6724655105374</v>
       </c>
       <c r="E16" t="n">
-        <v>216.2393760276228</v>
+        <v>216.2393760276227</v>
       </c>
       <c r="F16" t="n">
-        <v>178.3346458091663</v>
+        <v>178.3346458091662</v>
       </c>
       <c r="G16" t="n">
-        <v>123.9908219327827</v>
+        <v>123.9908219327825</v>
       </c>
       <c r="H16" t="n">
-        <v>79.19410146782292</v>
+        <v>79.1941014678229</v>
       </c>
       <c r="I16" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J16" t="n">
-        <v>103.0007461414252</v>
+        <v>103.0007461414251</v>
       </c>
       <c r="K16" t="n">
         <v>248.9007977391952</v>
       </c>
       <c r="L16" t="n">
-        <v>461.8037409925814</v>
+        <v>461.8037409925813</v>
       </c>
       <c r="M16" t="n">
-        <v>692.0931109733096</v>
+        <v>692.0931109733098</v>
       </c>
       <c r="N16" t="n">
-        <v>922.8113165760367</v>
+        <v>922.811316576037</v>
       </c>
       <c r="O16" t="n">
         <v>1133.570826924853</v>
       </c>
       <c r="P16" t="n">
-        <v>1308.835174506117</v>
+        <v>1308.835174506118</v>
       </c>
       <c r="Q16" t="n">
         <v>1383.360590105725</v>
@@ -5467,19 +5467,19 @@
         <v>1130.677867206768</v>
       </c>
       <c r="U16" t="n">
-        <v>958.0635524516348</v>
+        <v>958.0635524516349</v>
       </c>
       <c r="V16" t="n">
-        <v>811.9041727658238</v>
+        <v>811.9041727658239</v>
       </c>
       <c r="W16" t="n">
-        <v>640.3236960389893</v>
+        <v>640.3236960389894</v>
       </c>
       <c r="X16" t="n">
-        <v>523.6471566901314</v>
+        <v>523.6471566901316</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.1879226381749</v>
+        <v>416.1879226381751</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1325.283684051239</v>
+        <v>1325.283684051238</v>
       </c>
       <c r="C17" t="n">
-        <v>1116.16712417525</v>
+        <v>1116.167124175249</v>
       </c>
       <c r="D17" t="n">
-        <v>916.1603581936773</v>
+        <v>916.160358193677</v>
       </c>
       <c r="E17" t="n">
-        <v>694.1918370909882</v>
+        <v>694.1918370909879</v>
       </c>
       <c r="F17" t="n">
-        <v>452.8578451923626</v>
+        <v>452.8578451923622</v>
       </c>
       <c r="G17" t="n">
-        <v>209.5710574377546</v>
+        <v>209.5710574377542</v>
       </c>
       <c r="H17" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J17" t="n">
         <v>121.5655260990735</v>
@@ -5522,43 +5522,43 @@
         <v>709.5912712288025</v>
       </c>
       <c r="M17" t="n">
-        <v>1102.83043748189</v>
+        <v>1272.20857401715</v>
       </c>
       <c r="N17" t="n">
-        <v>1481.161796169606</v>
+        <v>1770.211804765423</v>
       </c>
       <c r="O17" t="n">
-        <v>1786.16638064244</v>
+        <v>2075.216389238257</v>
       </c>
       <c r="P17" t="n">
-        <v>2133.995149159053</v>
+        <v>2303.37328569431</v>
       </c>
       <c r="Q17" t="n">
-        <v>2397.805539380849</v>
+        <v>2397.805539380847</v>
       </c>
       <c r="R17" t="n">
-        <v>2478.349091313393</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="S17" t="n">
-        <v>2463.937314734951</v>
+        <v>2463.93731473495</v>
       </c>
       <c r="T17" t="n">
-        <v>2412.395567257166</v>
+        <v>2412.395567257165</v>
       </c>
       <c r="U17" t="n">
-        <v>2330.327429762364</v>
+        <v>2330.327429762363</v>
       </c>
       <c r="V17" t="n">
-        <v>2166.16535444951</v>
+        <v>2166.165354449508</v>
       </c>
       <c r="W17" t="n">
-        <v>1976.447623098315</v>
+        <v>1976.447623098313</v>
       </c>
       <c r="X17" t="n">
-        <v>1767.234681411012</v>
+        <v>1767.234681411011</v>
       </c>
       <c r="Y17" t="n">
-        <v>1546.510024778054</v>
+        <v>1546.510024778053</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>928.8797423283119</v>
+        <v>839.0161906131302</v>
       </c>
       <c r="C18" t="n">
-        <v>767.1760695692666</v>
+        <v>677.3125178540849</v>
       </c>
       <c r="D18" t="n">
-        <v>628.3374325594787</v>
+        <v>538.473880844297</v>
       </c>
       <c r="E18" t="n">
-        <v>481.3094226163499</v>
+        <v>391.4458709011682</v>
       </c>
       <c r="F18" t="n">
-        <v>346.6156245662243</v>
+        <v>278.2333392562853</v>
       </c>
       <c r="G18" t="n">
-        <v>217.8871245895088</v>
+        <v>149.5048392795698</v>
       </c>
       <c r="H18" t="n">
-        <v>117.9492671362069</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="I18" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J18" t="n">
         <v>109.821128359374</v>
@@ -5604,40 +5604,40 @@
         <v>1190.166879599905</v>
       </c>
       <c r="N18" t="n">
-        <v>1626.281591467951</v>
+        <v>1701.432525723027</v>
       </c>
       <c r="O18" t="n">
-        <v>2018.481542252102</v>
+        <v>2093.632476507178</v>
       </c>
       <c r="P18" t="n">
-        <v>2320.577461527799</v>
+        <v>2395.728395782875</v>
       </c>
       <c r="Q18" t="n">
-        <v>2478.349091313393</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="R18" t="n">
-        <v>2478.349091313393</v>
+        <v>2418.564822408338</v>
       </c>
       <c r="S18" t="n">
-        <v>2355.62888713626</v>
+        <v>2265.765335421078</v>
       </c>
       <c r="T18" t="n">
-        <v>2166.943783302245</v>
+        <v>2077.080231587064</v>
       </c>
       <c r="U18" t="n">
-        <v>1948.448990900555</v>
+        <v>1858.585439185374</v>
       </c>
       <c r="V18" t="n">
-        <v>1720.053368348889</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W18" t="n">
-        <v>1478.737499582199</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X18" t="n">
-        <v>1280.820511459994</v>
+        <v>1190.956959744812</v>
       </c>
       <c r="Y18" t="n">
-        <v>1088.299185109573</v>
+        <v>998.4356333943912</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="C19" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="D19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="E19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="F19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="G19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="H19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="I19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="K19" t="n">
-        <v>86.38798680778594</v>
+        <v>83.17116957091126</v>
       </c>
       <c r="L19" t="n">
-        <v>186.9950662080454</v>
+        <v>183.7782489711708</v>
       </c>
       <c r="M19" t="n">
-        <v>304.9885723356472</v>
+        <v>301.7717550987725</v>
       </c>
       <c r="N19" t="n">
-        <v>423.4109140852476</v>
+        <v>420.1940968483729</v>
       </c>
       <c r="O19" t="n">
-        <v>521.8745605809372</v>
+        <v>518.6577433440625</v>
       </c>
       <c r="P19" t="n">
-        <v>584.843044309075</v>
+        <v>584.8430443090745</v>
       </c>
       <c r="Q19" t="n">
-        <v>584.843044309075</v>
+        <v>584.8430443090745</v>
       </c>
       <c r="R19" t="n">
-        <v>584.843044309075</v>
+        <v>584.8430443090745</v>
       </c>
       <c r="S19" t="n">
-        <v>543.9504805039666</v>
+        <v>543.9504805039661</v>
       </c>
       <c r="T19" t="n">
-        <v>483.5887261108493</v>
+        <v>483.5887261108489</v>
       </c>
       <c r="U19" t="n">
-        <v>369.2156853911532</v>
+        <v>369.2156853911529</v>
       </c>
       <c r="V19" t="n">
-        <v>281.2975797407798</v>
+        <v>281.2975797407795</v>
       </c>
       <c r="W19" t="n">
-        <v>167.9583770493829</v>
+        <v>167.9583770493827</v>
       </c>
       <c r="X19" t="n">
-        <v>109.5231117359626</v>
+        <v>109.5231117359625</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.3051517194437</v>
+        <v>60.30515171944363</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1116.167124175249</v>
       </c>
       <c r="D20" t="n">
-        <v>916.1603581936771</v>
+        <v>916.160358193677</v>
       </c>
       <c r="E20" t="n">
         <v>694.191837090988</v>
@@ -5741,46 +5741,46 @@
         <v>452.8578451923624</v>
       </c>
       <c r="G20" t="n">
-        <v>209.5710574377546</v>
+        <v>209.5710574377545</v>
       </c>
       <c r="H20" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626784</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626784</v>
       </c>
       <c r="J20" t="n">
-        <v>290.9436626343326</v>
+        <v>121.5655260990735</v>
       </c>
       <c r="K20" t="n">
-        <v>531.0840346791153</v>
+        <v>392.5431856016993</v>
       </c>
       <c r="L20" t="n">
-        <v>878.9694077640615</v>
+        <v>740.4285586866456</v>
       </c>
       <c r="M20" t="n">
-        <v>1272.208574017149</v>
+        <v>1303.045861474993</v>
       </c>
       <c r="N20" t="n">
-        <v>1650.539932704865</v>
+        <v>1681.377220162708</v>
       </c>
       <c r="O20" t="n">
-        <v>1955.544517177699</v>
+        <v>1986.381804635542</v>
       </c>
       <c r="P20" t="n">
-        <v>2183.701413633753</v>
+        <v>2214.538701091596</v>
       </c>
       <c r="Q20" t="n">
-        <v>2397.805539380849</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="R20" t="n">
-        <v>2478.349091313393</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="S20" t="n">
-        <v>2463.937314734951</v>
+        <v>2463.93731473495</v>
       </c>
       <c r="T20" t="n">
-        <v>2412.395567257166</v>
+        <v>2412.395567257165</v>
       </c>
       <c r="U20" t="n">
         <v>2330.327429762363</v>
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>839.0161906131311</v>
+        <v>839.0161906131298</v>
       </c>
       <c r="C21" t="n">
-        <v>677.3125178540859</v>
+        <v>677.3125178540845</v>
       </c>
       <c r="D21" t="n">
-        <v>538.4738808442979</v>
+        <v>559.9551472495398</v>
       </c>
       <c r="E21" t="n">
-        <v>391.4458709011691</v>
+        <v>412.9271373064109</v>
       </c>
       <c r="F21" t="n">
-        <v>256.7520728510435</v>
+        <v>278.2333392562853</v>
       </c>
       <c r="G21" t="n">
-        <v>128.0235728743281</v>
+        <v>149.5048392795698</v>
       </c>
       <c r="H21" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626784</v>
       </c>
       <c r="I21" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626784</v>
       </c>
       <c r="J21" t="n">
         <v>109.821128359374</v>
@@ -5841,40 +5841,40 @@
         <v>1190.166879599905</v>
       </c>
       <c r="N21" t="n">
-        <v>1626.281591467951</v>
+        <v>1626.28159146795</v>
       </c>
       <c r="O21" t="n">
-        <v>2018.481542252102</v>
+        <v>2018.481542252101</v>
       </c>
       <c r="P21" t="n">
-        <v>2320.577461527799</v>
+        <v>2320.577461527798</v>
       </c>
       <c r="Q21" t="n">
-        <v>2478.349091313393</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="R21" t="n">
-        <v>2418.564822408339</v>
+        <v>2418.564822408337</v>
       </c>
       <c r="S21" t="n">
-        <v>2265.765335421079</v>
+        <v>2265.765335421078</v>
       </c>
       <c r="T21" t="n">
-        <v>2077.080231587065</v>
+        <v>2077.080231587063</v>
       </c>
       <c r="U21" t="n">
-        <v>1858.585439185375</v>
+        <v>1858.585439185373</v>
       </c>
       <c r="V21" t="n">
-        <v>1630.189816633709</v>
+        <v>1630.189816633707</v>
       </c>
       <c r="W21" t="n">
-        <v>1388.873947867019</v>
+        <v>1388.873947867017</v>
       </c>
       <c r="X21" t="n">
-        <v>1190.956959744813</v>
+        <v>1190.956959744812</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4356333943921</v>
+        <v>998.4356333943907</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626784</v>
       </c>
       <c r="C22" t="n">
-        <v>52.70450661701975</v>
+        <v>49.56698182626784</v>
       </c>
       <c r="D22" t="n">
-        <v>52.70450661701975</v>
+        <v>49.56698182626784</v>
       </c>
       <c r="E22" t="n">
-        <v>52.70450661701975</v>
+        <v>49.56698182626784</v>
       </c>
       <c r="F22" t="n">
-        <v>52.70450661701975</v>
+        <v>49.56698182626784</v>
       </c>
       <c r="G22" t="n">
-        <v>52.70450661701975</v>
+        <v>49.56698182626784</v>
       </c>
       <c r="H22" t="n">
-        <v>52.70450661701975</v>
+        <v>49.56698182626784</v>
       </c>
       <c r="I22" t="n">
-        <v>52.70450661701975</v>
+        <v>49.56698182626784</v>
       </c>
       <c r="J22" t="n">
-        <v>52.70450661701975</v>
+        <v>49.56698182626784</v>
       </c>
       <c r="K22" t="n">
-        <v>86.30869436166316</v>
+        <v>83.17116957091125</v>
       </c>
       <c r="L22" t="n">
-        <v>186.9157737619227</v>
+        <v>183.7782489711707</v>
       </c>
       <c r="M22" t="n">
-        <v>304.9092798895244</v>
+        <v>301.7717550987725</v>
       </c>
       <c r="N22" t="n">
-        <v>423.3316216391248</v>
+        <v>423.4109140852468</v>
       </c>
       <c r="O22" t="n">
-        <v>521.7952681348145</v>
+        <v>521.8745605809364</v>
       </c>
       <c r="P22" t="n">
-        <v>584.843044309075</v>
+        <v>584.8430443090742</v>
       </c>
       <c r="Q22" t="n">
-        <v>584.843044309075</v>
+        <v>584.8430443090742</v>
       </c>
       <c r="R22" t="n">
-        <v>584.843044309075</v>
+        <v>584.8430443090742</v>
       </c>
       <c r="S22" t="n">
-        <v>543.9504805039666</v>
+        <v>543.9504805039659</v>
       </c>
       <c r="T22" t="n">
-        <v>483.5887261108493</v>
+        <v>483.5887261108488</v>
       </c>
       <c r="U22" t="n">
-        <v>369.2156853911532</v>
+        <v>369.2156853911527</v>
       </c>
       <c r="V22" t="n">
-        <v>281.2975797407798</v>
+        <v>281.2975797407794</v>
       </c>
       <c r="W22" t="n">
-        <v>167.9583770493829</v>
+        <v>167.9583770493826</v>
       </c>
       <c r="X22" t="n">
-        <v>109.5231117359626</v>
+        <v>109.5231117359624</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.3051517194437</v>
+        <v>60.30515171944359</v>
       </c>
     </row>
     <row r="23">
@@ -5969,49 +5969,49 @@
         <v>1116.16712417525</v>
       </c>
       <c r="D23" t="n">
-        <v>916.1603581936769</v>
+        <v>916.1603581936777</v>
       </c>
       <c r="E23" t="n">
-        <v>694.1918370909877</v>
+        <v>694.1918370909885</v>
       </c>
       <c r="F23" t="n">
-        <v>452.857845192362</v>
+        <v>452.8578451923629</v>
       </c>
       <c r="G23" t="n">
-        <v>209.571057437754</v>
+        <v>209.5710574377549</v>
       </c>
       <c r="H23" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5655260990735</v>
+        <v>290.9436626343326</v>
       </c>
       <c r="K23" t="n">
-        <v>481.3777702044151</v>
+        <v>531.0840346791153</v>
       </c>
       <c r="L23" t="n">
-        <v>998.6412798246204</v>
+        <v>878.9694077640615</v>
       </c>
       <c r="M23" t="n">
-        <v>1391.880446077708</v>
+        <v>1272.208574017149</v>
       </c>
       <c r="N23" t="n">
-        <v>1770.211804765424</v>
+        <v>1650.539932704865</v>
       </c>
       <c r="O23" t="n">
-        <v>2075.216389238258</v>
+        <v>2124.922653712958</v>
       </c>
       <c r="P23" t="n">
-        <v>2303.373285694311</v>
+        <v>2353.079550169011</v>
       </c>
       <c r="Q23" t="n">
-        <v>2397.805539380848</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="R23" t="n">
-        <v>2478.349091313393</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="S23" t="n">
         <v>2463.937314734951</v>
@@ -6029,7 +6029,7 @@
         <v>1976.447623098314</v>
       </c>
       <c r="X23" t="n">
-        <v>1767.234681411012</v>
+        <v>1767.234681411011</v>
       </c>
       <c r="Y23" t="n">
         <v>1546.510024778054</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>928.8797423283119</v>
+        <v>839.0161906131302</v>
       </c>
       <c r="C24" t="n">
-        <v>767.1760695692666</v>
+        <v>677.3125178540849</v>
       </c>
       <c r="D24" t="n">
-        <v>628.3374325594787</v>
+        <v>538.473880844297</v>
       </c>
       <c r="E24" t="n">
-        <v>481.3094226163499</v>
+        <v>391.4458709011682</v>
       </c>
       <c r="F24" t="n">
-        <v>346.6156245662243</v>
+        <v>256.7520728510426</v>
       </c>
       <c r="G24" t="n">
-        <v>217.8871245895088</v>
+        <v>128.0235728743272</v>
       </c>
       <c r="H24" t="n">
         <v>117.9492671362069</v>
       </c>
       <c r="I24" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J24" t="n">
         <v>109.821128359374</v>
       </c>
       <c r="K24" t="n">
-        <v>264.1607466644866</v>
+        <v>339.3116809195627</v>
       </c>
       <c r="L24" t="n">
-        <v>629.9825918346022</v>
+        <v>629.9825918346017</v>
       </c>
       <c r="M24" t="n">
-        <v>1115.015945344829</v>
+        <v>1115.015945344828</v>
       </c>
       <c r="N24" t="n">
-        <v>1626.281591467951</v>
+        <v>1626.28159146795</v>
       </c>
       <c r="O24" t="n">
         <v>2018.481542252101</v>
       </c>
       <c r="P24" t="n">
-        <v>2320.577461527799</v>
+        <v>2320.577461527798</v>
       </c>
       <c r="Q24" t="n">
-        <v>2478.349091313393</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="R24" t="n">
         <v>2418.564822408338</v>
       </c>
       <c r="S24" t="n">
-        <v>2265.765335421079</v>
+        <v>2265.765335421078</v>
       </c>
       <c r="T24" t="n">
-        <v>2166.943783302245</v>
+        <v>2077.080231587064</v>
       </c>
       <c r="U24" t="n">
-        <v>1948.448990900555</v>
+        <v>1858.585439185374</v>
       </c>
       <c r="V24" t="n">
-        <v>1720.053368348889</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W24" t="n">
-        <v>1478.737499582199</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X24" t="n">
-        <v>1280.820511459994</v>
+        <v>1190.956959744812</v>
       </c>
       <c r="Y24" t="n">
-        <v>1088.299185109573</v>
+        <v>998.4356333943912</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="C25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="D25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="E25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="F25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="G25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="H25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="I25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="K25" t="n">
-        <v>83.17116957091127</v>
+        <v>83.17116957091126</v>
       </c>
       <c r="L25" t="n">
         <v>183.7782489711708</v>
@@ -6160,37 +6160,37 @@
         <v>420.1940968483729</v>
       </c>
       <c r="O25" t="n">
-        <v>518.6577433440626</v>
+        <v>518.6577433440625</v>
       </c>
       <c r="P25" t="n">
-        <v>581.6262270722004</v>
+        <v>581.6262270722003</v>
       </c>
       <c r="Q25" t="n">
-        <v>581.6262270722004</v>
+        <v>584.8430443090742</v>
       </c>
       <c r="R25" t="n">
-        <v>584.843044309075</v>
+        <v>584.8430443090742</v>
       </c>
       <c r="S25" t="n">
-        <v>543.9504805039666</v>
+        <v>543.9504805039659</v>
       </c>
       <c r="T25" t="n">
-        <v>483.5887261108493</v>
+        <v>483.5887261108488</v>
       </c>
       <c r="U25" t="n">
-        <v>369.2156853911532</v>
+        <v>369.2156853911527</v>
       </c>
       <c r="V25" t="n">
-        <v>281.2975797407798</v>
+        <v>281.2975797407794</v>
       </c>
       <c r="W25" t="n">
-        <v>167.9583770493829</v>
+        <v>167.9583770493826</v>
       </c>
       <c r="X25" t="n">
-        <v>109.5231117359626</v>
+        <v>109.5231117359624</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.30515171944369</v>
+        <v>60.3051517194436</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1744.207713709014</v>
+        <v>1421.109062253351</v>
       </c>
       <c r="C26" t="n">
-        <v>1476.849879797587</v>
+        <v>1153.751228341924</v>
       </c>
       <c r="D26" t="n">
-        <v>1218.601839780577</v>
+        <v>895.5031883249144</v>
       </c>
       <c r="E26" t="n">
-        <v>938.3920446424507</v>
+        <v>615.2933931867876</v>
       </c>
       <c r="F26" t="n">
-        <v>638.8167787083875</v>
+        <v>315.7181272527246</v>
       </c>
       <c r="G26" t="n">
-        <v>337.2887169183418</v>
+        <v>119.0433672714177</v>
       </c>
       <c r="H26" t="n">
-        <v>119.0433672714176</v>
+        <v>119.0433672714177</v>
       </c>
       <c r="I26" t="n">
-        <v>60.80209323598004</v>
+        <v>60.80209323598012</v>
       </c>
       <c r="J26" t="n">
-        <v>245.0965013619123</v>
+        <v>245.0965013619124</v>
       </c>
       <c r="K26" t="n">
         <v>597.5327372598218</v>
@@ -6242,34 +6242,34 @@
         <v>2471.176675170912</v>
       </c>
       <c r="P26" t="n">
-        <v>2811.629435480092</v>
+        <v>2809.91526500893</v>
       </c>
       <c r="Q26" t="n">
-        <v>3016.643382548589</v>
+        <v>3016.643382548593</v>
       </c>
       <c r="R26" t="n">
-        <v>3040.104661799002</v>
+        <v>3040.104661799006</v>
       </c>
       <c r="S26" t="n">
-        <v>2967.451611185122</v>
+        <v>2967.451611185126</v>
       </c>
       <c r="T26" t="n">
-        <v>2958.363891779274</v>
+        <v>2857.668589671904</v>
       </c>
       <c r="U26" t="n">
-        <v>2818.054480249035</v>
+        <v>2717.359178141664</v>
       </c>
       <c r="V26" t="n">
-        <v>2818.054480249035</v>
+        <v>2494.955828793372</v>
       </c>
       <c r="W26" t="n">
-        <v>2570.095474862402</v>
+        <v>2246.99682340674</v>
       </c>
       <c r="X26" t="n">
-        <v>2302.641259139662</v>
+        <v>1979.542607683999</v>
       </c>
       <c r="Y26" t="n">
-        <v>2023.675328471266</v>
+        <v>1700.576677015604</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>940.1148537380242</v>
+        <v>925.4022362779199</v>
       </c>
       <c r="C27" t="n">
-        <v>778.4111809789789</v>
+        <v>763.6985635188746</v>
       </c>
       <c r="D27" t="n">
-        <v>639.572543969191</v>
+        <v>624.8599265090867</v>
       </c>
       <c r="E27" t="n">
-        <v>492.5445340260621</v>
+        <v>477.8319165659579</v>
       </c>
       <c r="F27" t="n">
-        <v>357.8507359759365</v>
+        <v>343.1381185158323</v>
       </c>
       <c r="G27" t="n">
-        <v>229.122235999221</v>
+        <v>214.4096185391168</v>
       </c>
       <c r="H27" t="n">
-        <v>129.1843785459191</v>
+        <v>114.4717610858149</v>
       </c>
       <c r="I27" t="n">
-        <v>60.80209323598004</v>
+        <v>60.80209323598012</v>
       </c>
       <c r="J27" t="n">
-        <v>121.0562397690862</v>
+        <v>121.0562397690863</v>
       </c>
       <c r="K27" t="n">
-        <v>350.5467923292748</v>
+        <v>350.5467923292749</v>
       </c>
       <c r="L27" t="n">
-        <v>716.3686374993904</v>
+        <v>716.3686374993906</v>
       </c>
       <c r="M27" t="n">
         <v>1201.401991009617</v>
@@ -6321,34 +6321,34 @@
         <v>2104.86758791689</v>
       </c>
       <c r="P27" t="n">
-        <v>2406.963507192587</v>
+        <v>2406.963507192588</v>
       </c>
       <c r="Q27" t="n">
-        <v>2564.735136978181</v>
+        <v>2564.735136978182</v>
       </c>
       <c r="R27" t="n">
-        <v>2519.663485533232</v>
+        <v>2504.950868073127</v>
       </c>
       <c r="S27" t="n">
-        <v>2366.863998545972</v>
+        <v>2352.151381085868</v>
       </c>
       <c r="T27" t="n">
-        <v>2178.178894711958</v>
+        <v>2163.466277251853</v>
       </c>
       <c r="U27" t="n">
-        <v>1959.684102310268</v>
+        <v>1944.971484850163</v>
       </c>
       <c r="V27" t="n">
-        <v>1731.288479758602</v>
+        <v>1716.575862298497</v>
       </c>
       <c r="W27" t="n">
-        <v>1489.972610991912</v>
+        <v>1475.259993531807</v>
       </c>
       <c r="X27" t="n">
-        <v>1292.055622869706</v>
+        <v>1277.343005409602</v>
       </c>
       <c r="Y27" t="n">
-        <v>1099.534296519285</v>
+        <v>1084.821679059181</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.4435901192738</v>
+        <v>358.4435901192736</v>
       </c>
       <c r="C28" t="n">
-        <v>303.4035453367205</v>
+        <v>303.4035453367204</v>
       </c>
       <c r="D28" t="n">
         <v>264.9075769202497</v>
@@ -6370,16 +6370,16 @@
         <v>227.474487437335</v>
       </c>
       <c r="F28" t="n">
-        <v>189.5697572188785</v>
+        <v>189.5697572188786</v>
       </c>
       <c r="G28" t="n">
-        <v>135.2259333424949</v>
+        <v>135.225933342495</v>
       </c>
       <c r="H28" t="n">
-        <v>90.42921287753512</v>
+        <v>90.42921287753521</v>
       </c>
       <c r="I28" t="n">
-        <v>60.80209323598004</v>
+        <v>60.80209323598012</v>
       </c>
       <c r="J28" t="n">
         <v>114.2358575511374</v>
@@ -6388,16 +6388,16 @@
         <v>260.1359091489074</v>
       </c>
       <c r="L28" t="n">
-        <v>473.0388524022933</v>
+        <v>473.0388524022936</v>
       </c>
       <c r="M28" t="n">
-        <v>703.328222383022</v>
+        <v>703.3282223830221</v>
       </c>
       <c r="N28" t="n">
-        <v>934.046427985749</v>
+        <v>934.0464279857492</v>
       </c>
       <c r="O28" t="n">
-        <v>1144.805938334565</v>
+        <v>1144.805938334566</v>
       </c>
       <c r="P28" t="n">
         <v>1320.07028591583</v>
@@ -6415,19 +6415,19 @@
         <v>1141.912978616481</v>
       </c>
       <c r="U28" t="n">
-        <v>969.2986638613473</v>
+        <v>969.2986638613471</v>
       </c>
       <c r="V28" t="n">
-        <v>823.1392841755363</v>
+        <v>823.1392841755361</v>
       </c>
       <c r="W28" t="n">
-        <v>651.5588074487018</v>
+        <v>651.5588074487016</v>
       </c>
       <c r="X28" t="n">
         <v>534.8822680998437</v>
       </c>
       <c r="Y28" t="n">
-        <v>427.4230340478873</v>
+        <v>427.4230340478872</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1685.966439673577</v>
+        <v>1421.10906225335</v>
       </c>
       <c r="C29" t="n">
-        <v>1418.60860576215</v>
+        <v>1153.751228341924</v>
       </c>
       <c r="D29" t="n">
-        <v>1160.36056574514</v>
+        <v>895.5031883249137</v>
       </c>
       <c r="E29" t="n">
-        <v>880.1507706070133</v>
+        <v>720.1466949955266</v>
       </c>
       <c r="F29" t="n">
-        <v>580.57550467295</v>
+        <v>420.5714290614633</v>
       </c>
       <c r="G29" t="n">
-        <v>279.0474428829044</v>
+        <v>119.0433672714177</v>
       </c>
       <c r="H29" t="n">
-        <v>60.80209323598003</v>
+        <v>119.0433672714177</v>
       </c>
       <c r="I29" t="n">
-        <v>60.80209323598003</v>
+        <v>60.80209323598012</v>
       </c>
       <c r="J29" t="n">
-        <v>243.3823308907453</v>
+        <v>245.0965013619124</v>
       </c>
       <c r="K29" t="n">
-        <v>595.8185667886547</v>
+        <v>597.5327372598218</v>
       </c>
       <c r="L29" t="n">
-        <v>1055.999803726728</v>
+        <v>1057.713974197895</v>
       </c>
       <c r="M29" t="n">
-        <v>1561.534833832942</v>
+        <v>1563.249004304109</v>
       </c>
       <c r="N29" t="n">
-        <v>2052.162056373785</v>
+        <v>2053.876226844952</v>
       </c>
       <c r="O29" t="n">
-        <v>2469.462504699745</v>
+        <v>2471.176675170912</v>
       </c>
       <c r="P29" t="n">
-        <v>2809.915265008925</v>
+        <v>2811.629435480092</v>
       </c>
       <c r="Q29" t="n">
-        <v>3016.643382548589</v>
+        <v>3018.357553019756</v>
       </c>
       <c r="R29" t="n">
-        <v>3040.104661799001</v>
+        <v>3040.104661799006</v>
       </c>
       <c r="S29" t="n">
-        <v>2982.21655556189</v>
+        <v>2967.451611185126</v>
       </c>
       <c r="T29" t="n">
-        <v>2982.21655556189</v>
+        <v>2857.668589671904</v>
       </c>
       <c r="U29" t="n">
-        <v>2982.21655556189</v>
+        <v>2717.359178141664</v>
       </c>
       <c r="V29" t="n">
-        <v>2759.813206213598</v>
+        <v>2494.955828793371</v>
       </c>
       <c r="W29" t="n">
-        <v>2511.854200826966</v>
+        <v>2246.996823406739</v>
       </c>
       <c r="X29" t="n">
-        <v>2244.399985104225</v>
+        <v>1979.542607683999</v>
       </c>
       <c r="Y29" t="n">
-        <v>1965.43405443583</v>
+        <v>1700.576677015603</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>925.4022362779194</v>
+        <v>925.4022362779199</v>
       </c>
       <c r="C30" t="n">
-        <v>763.6985635188742</v>
+        <v>763.6985635188746</v>
       </c>
       <c r="D30" t="n">
-        <v>624.8599265090862</v>
+        <v>624.8599265090867</v>
       </c>
       <c r="E30" t="n">
-        <v>477.8319165659574</v>
+        <v>477.8319165659579</v>
       </c>
       <c r="F30" t="n">
-        <v>343.1381185158318</v>
+        <v>343.1381185158323</v>
       </c>
       <c r="G30" t="n">
-        <v>229.122235999221</v>
+        <v>214.4096185391168</v>
       </c>
       <c r="H30" t="n">
-        <v>129.184378545919</v>
+        <v>129.1843785459191</v>
       </c>
       <c r="I30" t="n">
-        <v>60.80209323598003</v>
+        <v>60.80209323598012</v>
       </c>
       <c r="J30" t="n">
-        <v>121.0562397690862</v>
+        <v>121.0562397690863</v>
       </c>
       <c r="K30" t="n">
-        <v>350.5467923292748</v>
+        <v>350.5467923292749</v>
       </c>
       <c r="L30" t="n">
-        <v>716.3686374993904</v>
+        <v>716.3686374993906</v>
       </c>
       <c r="M30" t="n">
         <v>1201.401991009617</v>
@@ -6558,16 +6558,16 @@
         <v>2104.86758791689</v>
       </c>
       <c r="P30" t="n">
-        <v>2406.963507192587</v>
+        <v>2406.963507192588</v>
       </c>
       <c r="Q30" t="n">
-        <v>2564.735136978181</v>
+        <v>2564.735136978182</v>
       </c>
       <c r="R30" t="n">
         <v>2504.950868073127</v>
       </c>
       <c r="S30" t="n">
-        <v>2352.151381085867</v>
+        <v>2352.151381085868</v>
       </c>
       <c r="T30" t="n">
         <v>2163.466277251853</v>
@@ -6582,10 +6582,10 @@
         <v>1475.259993531807</v>
       </c>
       <c r="X30" t="n">
-        <v>1277.343005409601</v>
+        <v>1277.343005409602</v>
       </c>
       <c r="Y30" t="n">
-        <v>1084.82167905918</v>
+        <v>1084.821679059181</v>
       </c>
     </row>
     <row r="31">
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.4435901192739</v>
+        <v>358.4435901192741</v>
       </c>
       <c r="C31" t="n">
-        <v>303.4035453367207</v>
+        <v>303.4035453367208</v>
       </c>
       <c r="D31" t="n">
-        <v>264.9075769202498</v>
+        <v>264.9075769202499</v>
       </c>
       <c r="E31" t="n">
-        <v>227.474487437335</v>
+        <v>227.4744874373351</v>
       </c>
       <c r="F31" t="n">
-        <v>189.5697572188785</v>
+        <v>189.5697572188786</v>
       </c>
       <c r="G31" t="n">
-        <v>135.225933342495</v>
+        <v>135.2259333424951</v>
       </c>
       <c r="H31" t="n">
-        <v>90.42921287753512</v>
+        <v>90.42921287753521</v>
       </c>
       <c r="I31" t="n">
-        <v>60.80209323598003</v>
+        <v>60.80209323598012</v>
       </c>
       <c r="J31" t="n">
-        <v>114.2358575511371</v>
+        <v>114.2358575511375</v>
       </c>
       <c r="K31" t="n">
-        <v>260.1359091489073</v>
+        <v>260.1359091489078</v>
       </c>
       <c r="L31" t="n">
-        <v>473.0388524022935</v>
+        <v>473.0388524022941</v>
       </c>
       <c r="M31" t="n">
-        <v>703.3282223830217</v>
+        <v>703.3282223830224</v>
       </c>
       <c r="N31" t="n">
-        <v>934.0464279857488</v>
+        <v>934.0464279857495</v>
       </c>
       <c r="O31" t="n">
-        <v>1144.805938334565</v>
+        <v>1144.805938334566</v>
       </c>
       <c r="P31" t="n">
         <v>1320.07028591583</v>
@@ -6652,19 +6652,19 @@
         <v>1141.912978616481</v>
       </c>
       <c r="U31" t="n">
-        <v>969.2986638613471</v>
+        <v>969.2986638613473</v>
       </c>
       <c r="V31" t="n">
-        <v>823.1392841755361</v>
+        <v>823.1392841755363</v>
       </c>
       <c r="W31" t="n">
-        <v>651.5588074487016</v>
+        <v>651.5588074487018</v>
       </c>
       <c r="X31" t="n">
-        <v>534.8822680998437</v>
+        <v>534.8822680998439</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.4230340478873</v>
+        <v>427.4230340478874</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1541.907533211064</v>
+        <v>1541.907533211063</v>
       </c>
       <c r="C32" t="n">
-        <v>1303.141340349513</v>
+        <v>1303.141340349512</v>
       </c>
       <c r="D32" t="n">
         <v>1073.484941382377</v>
       </c>
       <c r="E32" t="n">
-        <v>821.8667872941255</v>
+        <v>821.8667872941254</v>
       </c>
       <c r="F32" t="n">
-        <v>550.8831624099373</v>
+        <v>550.8831624099372</v>
       </c>
       <c r="G32" t="n">
         <v>277.9467416697667</v>
       </c>
       <c r="H32" t="n">
-        <v>88.29303307271695</v>
+        <v>88.29303307271688</v>
       </c>
       <c r="I32" t="n">
-        <v>58.64340008715438</v>
+        <v>58.64340008715436</v>
       </c>
       <c r="J32" t="n">
-        <v>130.64194435996</v>
+        <v>270.9604756060692</v>
       </c>
       <c r="K32" t="n">
-        <v>432.043768842604</v>
+        <v>651.4193788969612</v>
       </c>
       <c r="L32" t="n">
-        <v>779.9291419275503</v>
+        <v>1060.566204419767</v>
       </c>
       <c r="M32" t="n">
-        <v>1313.486839426747</v>
+        <v>1453.805370672855</v>
       </c>
       <c r="N32" t="n">
-        <v>1832.136729360572</v>
+        <v>1972.45526060668</v>
       </c>
       <c r="O32" t="n">
-        <v>2277.459845079515</v>
+        <v>2417.778376325623</v>
       </c>
       <c r="P32" t="n">
-        <v>2645.935272781678</v>
+        <v>2786.253804027786</v>
       </c>
       <c r="Q32" t="n">
-        <v>2880.686057714324</v>
+        <v>2880.686057714323</v>
       </c>
       <c r="R32" t="n">
-        <v>2932.170004357719</v>
+        <v>2932.170004357718</v>
       </c>
       <c r="S32" t="n">
         <v>2888.108594793714</v>
       </c>
       <c r="T32" t="n">
-        <v>2806.917214330367</v>
+        <v>2806.917214330366</v>
       </c>
       <c r="U32" t="n">
-        <v>2695.199443850002</v>
+        <v>2695.199443850001</v>
       </c>
       <c r="V32" t="n">
-        <v>2501.387735551585</v>
+        <v>2501.387735551584</v>
       </c>
       <c r="W32" t="n">
-        <v>2282.020371214827</v>
+        <v>2282.020371214826</v>
       </c>
       <c r="X32" t="n">
-        <v>2043.157796541962</v>
+        <v>2043.157796541961</v>
       </c>
       <c r="Y32" t="n">
-        <v>1792.783506923442</v>
+        <v>1792.78350692344</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>212.2509253902909</v>
       </c>
       <c r="H33" t="n">
-        <v>112.313067936989</v>
+        <v>127.0256853970934</v>
       </c>
       <c r="I33" t="n">
-        <v>58.64340008715438</v>
+        <v>58.64340008715436</v>
       </c>
       <c r="J33" t="n">
         <v>118.8975466202605</v>
@@ -6783,7 +6783,7 @@
         <v>348.3880991804492</v>
       </c>
       <c r="L33" t="n">
-        <v>714.2099443505649</v>
+        <v>714.2099443505648</v>
       </c>
       <c r="M33" t="n">
         <v>1199.243297860791</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.1434096213231</v>
+        <v>156.1434096213227</v>
       </c>
       <c r="C34" t="n">
-        <v>129.6950058886448</v>
+        <v>129.6950058886445</v>
       </c>
       <c r="D34" t="n">
-        <v>119.790678522049</v>
+        <v>119.7906785220487</v>
       </c>
       <c r="E34" t="n">
-        <v>110.9492300890092</v>
+        <v>110.949230089009</v>
       </c>
       <c r="F34" t="n">
-        <v>101.6361409204278</v>
+        <v>101.6361409204276</v>
       </c>
       <c r="G34" t="n">
-        <v>75.88395809391919</v>
+        <v>75.88395809391906</v>
       </c>
       <c r="H34" t="n">
-        <v>59.67887867883444</v>
+        <v>59.67887867883437</v>
       </c>
       <c r="I34" t="n">
-        <v>58.64340008715438</v>
+        <v>58.64340008715436</v>
       </c>
       <c r="J34" t="n">
-        <v>58.64340008715438</v>
+        <v>58.64340008715436</v>
       </c>
       <c r="K34" t="n">
-        <v>232.5661190779069</v>
+        <v>232.566119077907</v>
       </c>
       <c r="L34" t="n">
-        <v>473.4917297242756</v>
+        <v>333.1731984781665</v>
       </c>
       <c r="M34" t="n">
-        <v>591.4852358518773</v>
+        <v>451.1667046057682</v>
       </c>
       <c r="N34" t="n">
-        <v>709.9075776014777</v>
+        <v>633.2200900986736</v>
       </c>
       <c r="O34" t="n">
-        <v>808.3712240971673</v>
+        <v>872.0022678404724</v>
       </c>
       <c r="P34" t="n">
-        <v>871.3397078253051</v>
+        <v>934.9707515686102</v>
       </c>
       <c r="Q34" t="n">
-        <v>934.9707515686111</v>
+        <v>934.9707515686102</v>
       </c>
       <c r="R34" t="n">
-        <v>928.6165359886307</v>
+        <v>928.6165359886299</v>
       </c>
       <c r="S34" t="n">
-        <v>858.0743391979597</v>
+        <v>858.0743391979589</v>
       </c>
       <c r="T34" t="n">
-        <v>768.06295181928</v>
+        <v>768.0629518192792</v>
       </c>
       <c r="U34" t="n">
-        <v>624.0402781140212</v>
+        <v>624.0402781140206</v>
       </c>
       <c r="V34" t="n">
-        <v>506.4725394780853</v>
+        <v>506.4725394780847</v>
       </c>
       <c r="W34" t="n">
-        <v>363.4837038011258</v>
+        <v>363.4837038011253</v>
       </c>
       <c r="X34" t="n">
-        <v>275.398805502143</v>
+        <v>275.3988055021425</v>
       </c>
       <c r="Y34" t="n">
-        <v>196.5312125000615</v>
+        <v>196.5312125000611</v>
       </c>
     </row>
     <row r="35">
@@ -6932,31 +6932,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>363.2395906796742</v>
+        <v>479.0485364810476</v>
       </c>
       <c r="L35" t="n">
-        <v>711.1249637646204</v>
+        <v>826.9339095659939</v>
       </c>
       <c r="M35" t="n">
-        <v>1268.831904508741</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N35" t="n">
-        <v>1811.631037687489</v>
+        <v>1598.504434506797</v>
       </c>
       <c r="O35" t="n">
-        <v>2116.635622160322</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P35" t="n">
-        <v>2344.792518616376</v>
+        <v>2460.601464417749</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D36" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E36" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F36" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7044,22 +7044,22 @@
         <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U36" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W36" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X36" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H37" t="n">
-        <v>59.36731927228439</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I37" t="n">
-        <v>59.36731927228439</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J37" t="n">
-        <v>59.36731927228439</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K37" t="n">
-        <v>92.9715070169278</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L37" t="n">
-        <v>193.5785864171873</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>311.572092544789</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N37" t="n">
-        <v>429.9944342943894</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O37" t="n">
-        <v>528.4580807900791</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W37" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D38" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E38" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F38" t="n">
         <v>469.4217245791957</v>
@@ -7166,34 +7166,34 @@
         <v>221.1248745409159</v>
       </c>
       <c r="H38" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575745</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>692.175139661739</v>
+        <v>479.0485364810483</v>
       </c>
       <c r="L38" t="n">
-        <v>1080.236268659741</v>
+        <v>826.9339095659946</v>
       </c>
       <c r="M38" t="n">
-        <v>1473.475434912829</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N38" t="n">
-        <v>1851.806793600545</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O38" t="n">
-        <v>2156.811378073379</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.968274529432</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7202,22 +7202,22 @@
         <v>2535.611879242173</v>
       </c>
       <c r="T38" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U38" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V38" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W38" t="n">
-        <v>2028.08193847085</v>
+        <v>2028.081938470849</v>
       </c>
       <c r="X38" t="n">
         <v>1813.858934499875</v>
       </c>
       <c r="Y38" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G39" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H39" t="n">
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J39" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L39" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M39" t="n">
         <v>1191.700572135723</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S39" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208574</v>
+        <v>74.23504503930332</v>
       </c>
       <c r="J40" t="n">
-        <v>97.31943502373917</v>
+        <v>74.23504503930332</v>
       </c>
       <c r="K40" t="n">
-        <v>130.9236227683826</v>
+        <v>107.8392327839467</v>
       </c>
       <c r="L40" t="n">
-        <v>231.5307021686421</v>
+        <v>208.4463121842062</v>
       </c>
       <c r="M40" t="n">
-        <v>349.5242082962438</v>
+        <v>326.439818311808</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9465500458442</v>
+        <v>444.8621600614084</v>
       </c>
       <c r="O40" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1401.281595776341</v>
+        <v>1316.866346054379</v>
       </c>
       <c r="C41" t="n">
-        <v>1181.527290301883</v>
+        <v>1097.112040579921</v>
       </c>
       <c r="D41" t="n">
-        <v>970.8827787218415</v>
+        <v>886.4675289998794</v>
       </c>
       <c r="E41" t="n">
-        <v>738.2765120206832</v>
+        <v>653.861262298721</v>
       </c>
       <c r="F41" t="n">
         <v>486.3047745235882</v>
       </c>
       <c r="G41" t="n">
-        <v>232.380241170511</v>
+        <v>232.3802411705109</v>
       </c>
       <c r="H41" t="n">
-        <v>61.73841996055498</v>
+        <v>61.73841996055496</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>282.0513007090907</v>
+        <v>282.0513007090908</v>
       </c>
       <c r="K41" t="n">
         <v>522.1916727538735</v>
@@ -7421,40 +7421,40 @@
         <v>1263.316212091908</v>
       </c>
       <c r="N41" t="n">
-        <v>1698.370403943179</v>
+        <v>1641.647570779623</v>
       </c>
       <c r="O41" t="n">
-        <v>2003.374988416013</v>
+        <v>1946.652155252457</v>
       </c>
       <c r="P41" t="n">
-        <v>2231.531884872066</v>
+        <v>2301.64938234355</v>
       </c>
       <c r="Q41" t="n">
-        <v>2484.916220632802</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S41" t="n">
-        <v>2529.984195927375</v>
+        <v>2529.984195927376</v>
       </c>
       <c r="T41" t="n">
         <v>2467.804702851122</v>
       </c>
       <c r="U41" t="n">
-        <v>2459.514069479813</v>
+        <v>2375.09881975785</v>
       </c>
       <c r="V41" t="n">
-        <v>2284.714248568489</v>
+        <v>2200.298998846527</v>
       </c>
       <c r="W41" t="n">
-        <v>2084.358771618825</v>
+        <v>1999.943521896862</v>
       </c>
       <c r="X41" t="n">
-        <v>1864.508084333053</v>
+        <v>1780.092834611091</v>
       </c>
       <c r="Y41" t="n">
-        <v>1633.145682101626</v>
+        <v>1548.730432379663</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.7008174040254</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C42" t="n">
-        <v>753.9971446449802</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D42" t="n">
-        <v>615.1585076351922</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E42" t="n">
-        <v>468.1304976920634</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F42" t="n">
-        <v>333.4366996419378</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G42" t="n">
-        <v>204.7081996652224</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H42" t="n">
-        <v>104.7703422119204</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M42" t="n">
         <v>1191.700572135723</v>
@@ -7512,22 +7512,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S42" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X42" t="n">
         <v>1267.641586535707</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.27748614708594</v>
+        <v>58.53719070767067</v>
       </c>
       <c r="C43" t="n">
-        <v>57.84096980150098</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>57.84096980150098</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E43" t="n">
-        <v>57.84096980150098</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F43" t="n">
-        <v>57.84096980150098</v>
+        <v>57.84096980150096</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672914</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L43" t="n">
-        <v>287.8075353166174</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>405.8010414442191</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N43" t="n">
-        <v>524.2233831938195</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O43" t="n">
-        <v>622.6870296895091</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P43" t="n">
-        <v>685.6555134176469</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q43" t="n">
-        <v>685.6555134176469</v>
+        <v>678.9152179782316</v>
       </c>
       <c r="R43" t="n">
-        <v>685.6555134176469</v>
+        <v>678.9152179782316</v>
       </c>
       <c r="S43" t="n">
-        <v>634.1252040140693</v>
+        <v>627.3849085746539</v>
       </c>
       <c r="T43" t="n">
-        <v>563.1257040224829</v>
+        <v>556.3854085830675</v>
       </c>
       <c r="U43" t="n">
-        <v>438.1149177043175</v>
+        <v>431.3746222649021</v>
       </c>
       <c r="V43" t="n">
-        <v>339.5590664554749</v>
+        <v>332.8187710160595</v>
       </c>
       <c r="W43" t="n">
-        <v>215.5821181656087</v>
+        <v>208.8418227261934</v>
       </c>
       <c r="X43" t="n">
-        <v>146.5091072537192</v>
+        <v>139.7688118143039</v>
       </c>
       <c r="Y43" t="n">
-        <v>86.65340163873103</v>
+        <v>79.91310619931573</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1390.643850177872</v>
+        <v>1316.866346054379</v>
       </c>
       <c r="C44" t="n">
         <v>1170.889544703414</v>
@@ -7634,40 +7634,40 @@
         <v>727.6387664222138</v>
       </c>
       <c r="F44" t="n">
-        <v>475.6670289251189</v>
+        <v>475.667028925119</v>
       </c>
       <c r="G44" t="n">
         <v>221.7424955720417</v>
       </c>
       <c r="H44" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J44" t="n">
         <v>282.0513007090908</v>
       </c>
       <c r="K44" t="n">
-        <v>681.1437548280728</v>
+        <v>522.1916727538735</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.751961076574</v>
+        <v>1029.029127913019</v>
       </c>
       <c r="M44" t="n">
-        <v>1478.991127329662</v>
+        <v>1422.268294166107</v>
       </c>
       <c r="N44" t="n">
-        <v>1857.322486017377</v>
+        <v>1800.599652853823</v>
       </c>
       <c r="O44" t="n">
-        <v>2162.327070490211</v>
+        <v>2105.604237326656</v>
       </c>
       <c r="P44" t="n">
-        <v>2390.483966946264</v>
+        <v>2460.601464417749</v>
       </c>
       <c r="Q44" t="n">
-        <v>2484.916220632801</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7676,22 +7676,22 @@
         <v>2529.984195927376</v>
       </c>
       <c r="T44" t="n">
-        <v>2529.984195927376</v>
+        <v>2467.804702851122</v>
       </c>
       <c r="U44" t="n">
-        <v>2448.876323881343</v>
+        <v>2375.09881975785</v>
       </c>
       <c r="V44" t="n">
-        <v>2274.076502970019</v>
+        <v>2200.298998846527</v>
       </c>
       <c r="W44" t="n">
-        <v>2073.721026020355</v>
+        <v>1999.943521896863</v>
       </c>
       <c r="X44" t="n">
-        <v>1853.870338734583</v>
+        <v>1780.092834611091</v>
       </c>
       <c r="Y44" t="n">
-        <v>1622.507936503156</v>
+        <v>1548.730432379664</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.700817404025</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>753.9971446449797</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>615.1585076351918</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>468.130497692063</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F45" t="n">
-        <v>333.4366996419374</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G45" t="n">
-        <v>204.7081996652219</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
-        <v>104.77034221192</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J45" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L45" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M45" t="n">
         <v>1191.700572135723</v>
@@ -7749,22 +7749,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
         <v>1267.641586535707</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65.2774861470859</v>
+        <v>65.27748614708588</v>
       </c>
       <c r="C46" t="n">
-        <v>57.84096980150096</v>
+        <v>57.84096980150095</v>
       </c>
       <c r="D46" t="n">
-        <v>57.84096980150096</v>
+        <v>57.84096980150095</v>
       </c>
       <c r="E46" t="n">
-        <v>57.84096980150096</v>
+        <v>57.84096980150095</v>
       </c>
       <c r="F46" t="n">
-        <v>57.84096980150096</v>
+        <v>57.84096980150095</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L46" t="n">
-        <v>287.8075353166172</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M46" t="n">
-        <v>405.801041444219</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N46" t="n">
-        <v>524.2233831938194</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O46" t="n">
         <v>622.687029689509</v>
@@ -7991,10 +7991,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>495.0402356415689</v>
+        <v>483.5819421002299</v>
       </c>
       <c r="P2" t="n">
-        <v>406.8800270815938</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
         <v>180.6233730229902</v>
@@ -8058,22 +8058,22 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>175.9302247245894</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>605.0346779723779</v>
+        <v>605.0346779723766</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>365.9634164256814</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8231,10 +8231,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>418.3383206229274</v>
+        <v>384.2197145424657</v>
       </c>
       <c r="Q5" t="n">
-        <v>241.89088177742</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8292,7 +8292,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
@@ -8304,16 +8304,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>605.0346779723779</v>
+        <v>127.9265891286442</v>
       </c>
       <c r="O6" t="n">
-        <v>438.5628277596418</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8532,7 +8532,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
@@ -8547,10 +8547,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>124.1300184260142</v>
+        <v>196.5733747639883</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8781,13 +8781,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>436.1109804586605</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>197.1904394555166</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>547.2350520455319</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>258.0532137313817</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>547.2350520455328</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>197.1904394555157</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>547.2350520455328</v>
+        <v>547.2350520455313</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9717,10 +9717,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>267.8947735152652</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>406.1824142934095</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -11139,7 +11139,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>343.8048081163523</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>277.4076971867455</v>
+        <v>27.96412523625306</v>
       </c>
       <c r="F11" t="n">
-        <v>296.5795132747226</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>57.6588612950832</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14.22277035014923</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>187.4751710002595</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>253.640089582708</v>
       </c>
       <c r="H14" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>57.65886129508321</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>138.9063174149372</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>264.7796735655128</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -24455,10 +24455,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>103.8047687906517</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24494,13 +24494,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>99.68834908630021</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24686,7 +24686,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>103.8047687906522</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24695,10 +24695,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24728,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.61729493300052</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>138.9063174149372</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>83.5710972247424</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>83.57109722474303</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>73.03972908225776</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25916,10 +25916,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>61.55769814549151</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>11.48203093676582</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>731807.8528275535</v>
+        <v>731807.8528275534</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>731807.8528275535</v>
+        <v>731807.8528275534</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>669569.727238385</v>
+        <v>669569.7272383849</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>669569.727238385</v>
+        <v>669569.7272383849</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>733251.0565957396</v>
+        <v>733251.0565957394</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>709860.12969948</v>
+        <v>709860.1296994803</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>709860.1296994799</v>
+        <v>709860.1296994803</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>727258.645980436</v>
+        <v>727258.6459804361</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>633289.8499076997</v>
+        <v>633289.8499077</v>
       </c>
       <c r="C2" t="n">
-        <v>633289.8499076997</v>
+        <v>633289.8499076999</v>
       </c>
       <c r="D2" t="n">
-        <v>633289.8499076997</v>
+        <v>633289.8499077001</v>
       </c>
       <c r="E2" t="n">
-        <v>576492.9885889784</v>
+        <v>576492.9885889788</v>
       </c>
       <c r="F2" t="n">
-        <v>576492.9885889788</v>
+        <v>576492.9885889789</v>
       </c>
       <c r="G2" t="n">
-        <v>633289.8499076995</v>
+        <v>633289.8499076996</v>
       </c>
       <c r="H2" t="n">
-        <v>633289.8499076995</v>
+        <v>633289.8499076996</v>
       </c>
       <c r="I2" t="n">
-        <v>633289.8499076996</v>
+        <v>633289.8499076994</v>
       </c>
       <c r="J2" t="n">
-        <v>612284.1403510184</v>
+        <v>612284.1403510182</v>
       </c>
       <c r="K2" t="n">
-        <v>612284.1403510179</v>
+        <v>612284.1403510178</v>
       </c>
       <c r="L2" t="n">
-        <v>633289.8499077007</v>
+        <v>633289.8499077008</v>
       </c>
       <c r="M2" t="n">
-        <v>633289.8499076987</v>
+        <v>633289.8499076988</v>
       </c>
       <c r="N2" t="n">
-        <v>633289.8499076989</v>
+        <v>633289.849907699</v>
       </c>
       <c r="O2" t="n">
-        <v>627801.7359529509</v>
+        <v>627801.7359529511</v>
       </c>
       <c r="P2" t="n">
         <v>627801.7359529511</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166998.3381661036</v>
+        <v>166998.3381661031</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8381.935660246398</v>
+        <v>8381.935660246825</v>
       </c>
       <c r="E3" t="n">
-        <v>118895.2819258113</v>
+        <v>118895.2819258112</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46127.08903606657</v>
+        <v>46127.08903606662</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68771.66874756759</v>
+        <v>68771.66874756767</v>
       </c>
       <c r="M3" t="n">
-        <v>19514.53999589755</v>
+        <v>19514.53999589751</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40159.9181851808</v>
+        <v>40159.91818518077</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214803.7074950366</v>
+        <v>214803.7074950369</v>
       </c>
       <c r="C4" t="n">
-        <v>214803.7074950366</v>
+        <v>214803.7074950369</v>
       </c>
       <c r="D4" t="n">
         <v>208183.1070948236</v>
@@ -26430,7 +26430,7 @@
         <v>161481.1321306533</v>
       </c>
       <c r="G4" t="n">
-        <v>200526.4987188371</v>
+        <v>200526.498718837</v>
       </c>
       <c r="H4" t="n">
         <v>200526.4987188371</v>
@@ -26439,10 +26439,10 @@
         <v>200526.4987188371</v>
       </c>
       <c r="J4" t="n">
-        <v>185177.2536674625</v>
+        <v>185177.2536674627</v>
       </c>
       <c r="K4" t="n">
-        <v>185177.2536674625</v>
+        <v>185177.2536674627</v>
       </c>
       <c r="L4" t="n">
         <v>199457.8637398637</v>
@@ -26451,7 +26451,7 @@
         <v>198982.8504522114</v>
       </c>
       <c r="N4" t="n">
-        <v>198982.8504522115</v>
+        <v>198982.8504522114</v>
       </c>
       <c r="O4" t="n">
         <v>195203.5022050863</v>
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63925.42784380392</v>
+        <v>63925.42784380383</v>
       </c>
       <c r="C5" t="n">
-        <v>63925.42784380392</v>
+        <v>63925.42784380383</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>47206.86677207318</v>
+        <v>47206.86677207316</v>
       </c>
       <c r="F5" t="n">
-        <v>47206.86677207318</v>
+        <v>47206.86677207316</v>
       </c>
       <c r="G5" t="n">
-        <v>52054.18958228953</v>
+        <v>52054.18958228952</v>
       </c>
       <c r="H5" t="n">
-        <v>52054.18958228953</v>
+        <v>52054.18958228952</v>
       </c>
       <c r="I5" t="n">
         <v>52054.18958228952</v>
       </c>
       <c r="J5" t="n">
-        <v>55745.55144345443</v>
+        <v>55745.55144345449</v>
       </c>
       <c r="K5" t="n">
-        <v>55745.55144345442</v>
+        <v>55745.55144345449</v>
       </c>
       <c r="L5" t="n">
-        <v>56484.57861505465</v>
+        <v>56484.57861505463</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26506,10 +26506,10 @@
         <v>52802.81689264637</v>
       </c>
       <c r="O5" t="n">
+        <v>52334.43432114058</v>
+      </c>
+      <c r="P5" t="n">
         <v>52334.43432114057</v>
-      </c>
-      <c r="P5" t="n">
-        <v>52334.43432114058</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>187562.3764027556</v>
+        <v>187562.3764027561</v>
       </c>
       <c r="C6" t="n">
-        <v>354560.7145688592</v>
+        <v>354560.7145688591</v>
       </c>
       <c r="D6" t="n">
-        <v>351158.7725157184</v>
+        <v>351158.7725157182</v>
       </c>
       <c r="E6" t="n">
-        <v>248909.7077604406</v>
+        <v>248737.5960594753</v>
       </c>
       <c r="F6" t="n">
-        <v>367804.9896862523</v>
+        <v>367632.8779852866</v>
       </c>
       <c r="G6" t="n">
-        <v>334582.0725705063</v>
+        <v>334582.0725705064</v>
       </c>
       <c r="H6" t="n">
-        <v>380709.1616065729</v>
+        <v>380709.161606573</v>
       </c>
       <c r="I6" t="n">
-        <v>380709.161606573</v>
+        <v>380709.1616065728</v>
       </c>
       <c r="J6" t="n">
-        <v>159616.9813346814</v>
+        <v>159553.3276693577</v>
       </c>
       <c r="K6" t="n">
-        <v>371361.335240101</v>
+        <v>371297.6815747774</v>
       </c>
       <c r="L6" t="n">
         <v>308575.7388052148</v>
       </c>
       <c r="M6" t="n">
-        <v>361989.6425669433</v>
+        <v>361989.6425669435</v>
       </c>
       <c r="N6" t="n">
-        <v>381504.1825628411</v>
+        <v>381504.1825628413</v>
       </c>
       <c r="O6" t="n">
-        <v>340103.8812415433</v>
+        <v>340087.2505931958</v>
       </c>
       <c r="P6" t="n">
-        <v>380263.7994267243</v>
+        <v>380247.1687783765</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="G2" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="H2" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="J2" t="n">
         <v>113.4301655082087</v>
@@ -26713,7 +26713,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.3195369046697</v>
+        <v>498.3195369046683</v>
       </c>
       <c r="C4" t="n">
-        <v>498.3195369046697</v>
+        <v>498.3195369046683</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>619.5872728283483</v>
+        <v>619.5872728283481</v>
       </c>
       <c r="F4" t="n">
-        <v>619.5872728283483</v>
+        <v>619.5872728283481</v>
       </c>
       <c r="G4" t="n">
-        <v>619.5872728283483</v>
+        <v>619.5872728283481</v>
       </c>
       <c r="H4" t="n">
-        <v>619.5872728283483</v>
+        <v>619.587272828348</v>
       </c>
       <c r="I4" t="n">
-        <v>619.5872728283482</v>
+        <v>619.5872728283481</v>
       </c>
       <c r="J4" t="n">
-        <v>760.0261654497505</v>
+        <v>760.0261654497515</v>
       </c>
       <c r="K4" t="n">
-        <v>760.0261654497504</v>
+        <v>760.0261654497515</v>
       </c>
       <c r="L4" t="n">
-        <v>733.0425010894297</v>
+        <v>733.0425010894295</v>
       </c>
       <c r="M4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="N4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260717</v>
       </c>
-      <c r="N4" t="n">
-        <v>638.7584295260717</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>638.7584295260716</v>
-      </c>
-      <c r="P4" t="n">
-        <v>638.7584295260717</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.65886129508321</v>
+        <v>57.65886129508327</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>55.77130421312555</v>
+        <v>55.77130421312546</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.96458593445948</v>
+        <v>85.96458593445959</v>
       </c>
       <c r="M2" t="n">
-        <v>24.39317499487194</v>
+        <v>24.39317499487188</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.199897731476</v>
+        <v>50.19989773147596</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.3195369046697</v>
+        <v>498.3195369046683</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>26.98366436032063</v>
+        <v>26.98366436032201</v>
       </c>
       <c r="E4" t="n">
-        <v>94.284071563358</v>
+        <v>94.28407156335777</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260718</v>
+        <v>638.7584295260722</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.65886129508321</v>
+        <v>57.65886129508327</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>55.77130421312555</v>
+        <v>55.77130421312546</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>498.3195369046697</v>
+        <v>498.3195369046683</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>26.98366436032063</v>
+        <v>26.98366436032201</v>
       </c>
       <c r="M4" t="n">
-        <v>94.284071563358</v>
+        <v>94.28407156335777</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>333.9465285415514</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>30.7157462940969</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>95.15432488133017</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>17.29505749447762</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
         <v>150.9558484244806</v>
@@ -27555,10 +27555,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>12.14648296075186</v>
+        <v>25.5553162596275</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -27597,7 +27597,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
@@ -27622,7 +27622,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -27673,16 +27673,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>213.6011981691719</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>165.6191793262348</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>83.41851261200311</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>40.19256490149394</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27783,7 +27783,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>39.33566659919893</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
@@ -27831,13 +27831,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>14.68413607146329</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>264.0806145921396</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>89.2321666744825</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27938,19 +27938,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>24.68645909039981</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>101.597958592548</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>107.9671089653528</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28062,16 +28062,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>271.7216854425707</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28114,7 +28114,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K11" t="n">
-        <v>9.338070422798125</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,19 +28123,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>33.03633229190126</v>
       </c>
       <c r="R11" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>113.4301655082087</v>
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>21.26645374119028</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>29.77848998202506</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28351,19 +28351,19 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K14" t="n">
-        <v>9.338070422798296</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>33.03633229190086</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -28372,7 +28372,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="R14" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>113.4301655082087</v>
@@ -28418,10 +28418,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>88.96491619802978</v>
       </c>
       <c r="H15" t="n">
-        <v>88.96491619802892</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="C17" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="D17" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="E17" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="F17" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="G17" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="H17" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28594,43 +28594,43 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>171.089026803292</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>120.8806788490481</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>120.8806788490501</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="S17" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="T17" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="U17" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="V17" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="W17" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="X17" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="Y17" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
     </row>
     <row r="18">
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>21.26645374119026</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>29.77848998202506</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28719,13 +28719,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>154.7904845807923</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3.249310340276921</v>
       </c>
       <c r="Q19" t="n">
         <v>38.15196793284785</v>
@@ -28770,25 +28770,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="T19" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="U19" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="V19" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="W19" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="X19" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
     </row>
     <row r="20">
@@ -28798,40 +28798,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="C20" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="D20" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="E20" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="F20" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="G20" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="H20" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="I20" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="J20" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>31.1487752099425</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>171.089026803292</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28843,31 +28843,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>120.8806788490496</v>
+        <v>171.089026803292</v>
       </c>
       <c r="R20" t="n">
-        <v>171.0890268032919</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="T20" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="U20" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="V20" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="W20" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="X20" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="Y20" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
     </row>
     <row r="21">
@@ -28883,7 +28883,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>21.26645374119079</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>21.26645374118931</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>67.69846245683961</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="C22" t="n">
-        <v>171.0890268032919</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28992,13 +28992,13 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.249310340276693</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.08009337992197629</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>38.15196793284785</v>
@@ -29007,25 +29007,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="T22" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="U22" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="V22" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="W22" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="X22" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
     </row>
     <row r="23">
@@ -29035,37 +29035,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="C23" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="D23" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="E23" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="F23" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="G23" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="H23" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="I23" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>171.089026803292</v>
       </c>
       <c r="K23" t="n">
-        <v>120.8806788490494</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29074,37 +29074,37 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>171.089026803292</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>31.14877520994347</v>
       </c>
       <c r="R23" t="n">
-        <v>171.0890268032919</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="T23" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="U23" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="V23" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="W23" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="X23" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="Y23" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
     </row>
     <row r="24">
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>88.96491619802981</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>88.96491619802943</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>41.40127827312453</v>
       </c>
       <c r="R25" t="n">
-        <v>151.2758739120429</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="T25" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="U25" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="V25" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="W25" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="X25" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0890268032919</v>
+        <v>171.089026803292</v>
       </c>
     </row>
     <row r="26">
@@ -29314,10 +29314,10 @@
         <v>113.4301655082087</v>
       </c>
       <c r="P26" t="n">
+        <v>111.6986801838019</v>
+      </c>
+      <c r="Q26" t="n">
         <v>113.4301655082087</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>111.6986801837981</v>
       </c>
       <c r="R26" t="n">
         <v>113.4301655082087</v>
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>14.56549128550319</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29533,7 +29533,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J29" t="n">
-        <v>111.6986801837976</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K29" t="n">
         <v>113.4301655082087</v>
@@ -29557,7 +29557,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="R29" t="n">
-        <v>113.4301655082087</v>
+        <v>111.6986801838022</v>
       </c>
       <c r="S29" t="n">
         <v>113.4301655082087</v>
@@ -29603,10 +29603,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>14.56549128550319</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="C32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="D32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="E32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="F32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="G32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="H32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="I32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="K32" t="n">
-        <v>61.8802549877386</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>61.88025498773715</v>
       </c>
       <c r="M32" t="n">
-        <v>141.735890147585</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="O32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="P32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.735890147585</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="S32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="T32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="U32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="V32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="W32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="X32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
     </row>
     <row r="33">
@@ -29843,10 +29843,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>14.56549128550337</v>
       </c>
       <c r="I33" t="n">
-        <v>14.56549128550338</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="C34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="D34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="E34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="F34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="G34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="H34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="I34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="J34" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="L34" t="n">
-        <v>141.735890147585</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>64.27378155889399</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.4257494917428</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="S34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="T34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="U34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="V34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="W34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="X34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.735890147585</v>
+        <v>141.7358901475851</v>
       </c>
     </row>
     <row r="35">
@@ -30010,28 +30010,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>116.9787331327005</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
       <c r="Q35" t="n">
-        <v>40.58157162934955</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30116,7 +30116,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>152.6650248714419</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30159,7 +30159,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
         <v>142.7610139533483</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>45.56176619902598</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>38.33547045601499</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>38.15196793284785</v>
@@ -30244,31 +30244,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>116.9787331327012</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K38" t="n">
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L38" t="n">
-        <v>40.58157162934975</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30390,7 +30390,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
@@ -30399,10 +30399,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J40" t="n">
-        <v>106.142283029922</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>22.19371500991728</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30493,19 +30493,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>57.29579107429834</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>128.1215460959998</v>
       </c>
       <c r="Q41" t="n">
         <v>160.5576586608074</v>
       </c>
       <c r="R41" t="n">
-        <v>160.5576586608074</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>160.5576586608074</v>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>14.56549128550325</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30627,7 +30627,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>157.7642276562132</v>
       </c>
       <c r="G43" t="n">
         <v>160.5576586608074</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>103.5309028380088</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>134.8744915391239</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
@@ -30721,11 +30721,11 @@
         <v>160.5576586608074</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>160.5576586608074</v>
       </c>
-      <c r="L44" t="n">
-        <v>57.29579107429765</v>
-      </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
@@ -30736,13 +30736,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>128.1215460959998</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>160.5576586608074</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>160.5576586608074</v>
@@ -30791,10 +30791,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="I45" t="n">
-        <v>14.56549128550371</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>103.5309028380087</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>103.5309028380086</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>308.0854388614484</v>
+        <v>296.6271453201094</v>
       </c>
       <c r="P2" t="n">
-        <v>219.0032180304372</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>63.35479115344163</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>498.3195369046697</v>
+        <v>498.3195369046683</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>257.1092104015381</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34951,10 +34951,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>230.4615115717709</v>
+        <v>196.3429054913092</v>
       </c>
       <c r="Q5" t="n">
-        <v>61.26750875442975</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
@@ -35024,16 +35024,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>498.3195369046697</v>
+        <v>21.21144806093585</v>
       </c>
       <c r="O6" t="n">
-        <v>322.7033791485307</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
@@ -35267,10 +35267,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>15.27581240187084</v>
+        <v>87.71916873984496</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K11" t="n">
-        <v>251.9041027912656</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
         <v>351.3993667524709</v>
@@ -35419,19 +35419,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>495.583053071558</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
         <v>421.5156043696572</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>343.8916770799797</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>128.4224471267871</v>
       </c>
       <c r="R11" t="n">
-        <v>23.69826186910355</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
-        <v>396.1615664486372</v>
+        <v>320.2515318475494</v>
       </c>
       <c r="P12" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>83.45524801062412</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823975</v>
       </c>
       <c r="K13" t="n">
         <v>147.373789492697</v>
@@ -35586,7 +35586,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536089</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>186.155967803972</v>
       </c>
       <c r="K14" t="n">
-        <v>251.9041027912657</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
-        <v>464.8295322606797</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N14" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>308.0854388614484</v>
+        <v>341.1217711533493</v>
       </c>
       <c r="P14" t="n">
         <v>230.4615115717709</v>
@@ -35668,7 +35668,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910355</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
         <v>231.8086389496855</v>
@@ -35735,7 +35735,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>516.4299455789112</v>
+        <v>440.5199109778236</v>
       </c>
       <c r="O15" t="n">
         <v>396.1615664486372</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>144.3180222864892</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,22 +35890,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>397.2112790435232</v>
+        <v>568.3003058468151</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>503.0335664123974</v>
       </c>
       <c r="O17" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>351.3421904208211</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>266.4751416381778</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>81.35712316418676</v>
+        <v>81.35712316418682</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>440.5199109778245</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O18" t="n">
         <v>396.1615664486372</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117113</v>
+        <v>83.45524801062321</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36021,7 +36021,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>3.249310340277435</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -36057,7 +36057,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P19" t="n">
-        <v>63.604529018321</v>
+        <v>66.85383935859792</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>243.8148290990552</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5660323684674</v>
+        <v>273.7148075784099</v>
       </c>
       <c r="L20" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>397.2112790435232</v>
+        <v>568.3003058468153</v>
       </c>
       <c r="N20" t="n">
         <v>382.1528875633492</v>
@@ -36139,10 +36139,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>216.2667936839354</v>
+        <v>266.4751416381779</v>
       </c>
       <c r="R20" t="n">
-        <v>81.35712316418676</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>440.5199109778245</v>
+        <v>440.5199109778231</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
@@ -36255,7 +36255,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>3.169216960355442</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -36288,13 +36288,13 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N22" t="n">
-        <v>119.6185270197983</v>
+        <v>122.867837360075</v>
       </c>
       <c r="O22" t="n">
         <v>99.45822878352493</v>
       </c>
       <c r="P22" t="n">
-        <v>63.68462239824298</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.72580229576329</v>
+        <v>243.8148290990553</v>
       </c>
       <c r="K23" t="n">
-        <v>363.4467112175168</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>522.4883935557629</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
@@ -36370,16 +36370,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0854388614484</v>
+        <v>479.1744656647405</v>
       </c>
       <c r="P23" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>126.5348900448293</v>
       </c>
       <c r="R23" t="n">
-        <v>81.35712316418676</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
-        <v>155.8986043485986</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>369.5170153233491</v>
+        <v>293.6069807222617</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
@@ -36534,10 +36534,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>3.249310340276675</v>
       </c>
       <c r="R25" t="n">
-        <v>3.249310340277364</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K26" t="n">
-        <v>355.9961978766762</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L26" t="n">
         <v>464.8295322606797</v>
@@ -36610,13 +36610,13 @@
         <v>421.5156043696572</v>
       </c>
       <c r="P26" t="n">
-        <v>343.8916770799797</v>
+        <v>342.1601917555728</v>
       </c>
       <c r="Q26" t="n">
-        <v>207.084795018684</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910356</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K28" t="n">
         <v>147.373789492697</v>
@@ -36771,7 +36771,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>184.4244824795609</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K29" t="n">
         <v>355.9961978766761</v>
@@ -36853,7 +36853,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910355</v>
+        <v>21.96677654469705</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>72.72580229576329</v>
+        <v>214.4616924433483</v>
       </c>
       <c r="K32" t="n">
-        <v>304.446287356206</v>
+        <v>384.3019225160525</v>
       </c>
       <c r="L32" t="n">
-        <v>351.3993667524709</v>
+        <v>413.2796217402081</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9471691911082</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N32" t="n">
-        <v>523.8887777109342</v>
+        <v>523.8887777109343</v>
       </c>
       <c r="O32" t="n">
-        <v>449.8213290090334</v>
+        <v>449.8213290090335</v>
       </c>
       <c r="P32" t="n">
-        <v>372.1974017193559</v>
+        <v>372.197401719356</v>
       </c>
       <c r="Q32" t="n">
-        <v>237.1220049824709</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
-        <v>52.00398650847981</v>
+        <v>52.00398650847987</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,22 +37230,22 @@
         <v>175.6795141320733</v>
       </c>
       <c r="L34" t="n">
-        <v>243.3592026730996</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>119.6185270197983</v>
+        <v>183.8923085786923</v>
       </c>
       <c r="O34" t="n">
-        <v>99.45822878352493</v>
+        <v>241.19411893111</v>
       </c>
       <c r="P34" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.27378155889495</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5660323684674</v>
+        <v>359.5447655011679</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q35" t="n">
-        <v>135.9676864642354</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>119.1853597248502</v>
+        <v>164.7471259238762</v>
       </c>
       <c r="N37" t="n">
         <v>119.6185270197983</v>
@@ -37479,7 +37479,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P37" t="n">
-        <v>101.939999474336</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>408.6950975109244</v>
+        <v>359.5447655011686</v>
       </c>
       <c r="L38" t="n">
-        <v>391.9809383818207</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O38" t="n">
         <v>308.0854388614484</v>
@@ -37561,10 +37561,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K39" t="n">
         <v>231.8086389496855</v>
@@ -37686,7 +37686,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37695,10 +37695,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J40" t="n">
-        <v>46.68561682995296</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>33.9436239844883</v>
@@ -37713,7 +37713,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O40" t="n">
-        <v>99.45822878352493</v>
+        <v>121.6519437934422</v>
       </c>
       <c r="P40" t="n">
         <v>63.604529018321</v>
@@ -37789,19 +37789,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>439.4486786376476</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4615115717709</v>
+        <v>358.5830576677707</v>
       </c>
       <c r="Q41" t="n">
         <v>255.9437734956933</v>
       </c>
       <c r="R41" t="n">
-        <v>70.82575502170221</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
-        <v>231.8086389496855</v>
+        <v>231.8086389496856</v>
       </c>
       <c r="L42" t="n">
         <v>369.5170153233491</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>6.808379231732546</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
-        <v>205.1542153635235</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
         <v>119.1853597248502</v>
@@ -37956,7 +37956,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>96.72252360627603</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>233.2834609565707</v>
       </c>
       <c r="K44" t="n">
-        <v>403.1236910292748</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>408.6951578267686</v>
+        <v>511.9570254132784</v>
       </c>
       <c r="M44" t="n">
         <v>397.2112790435232</v>
@@ -38032,13 +38032,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>230.4615115717709</v>
+        <v>358.5830576677707</v>
       </c>
       <c r="Q44" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>70.82575502170224</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
         <v>231.8086389496855</v>
@@ -38178,7 +38178,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
-        <v>205.1542153635233</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
         <v>119.1853597248502</v>
@@ -38187,7 +38187,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>99.45822878352493</v>
+        <v>202.9891316215336</v>
       </c>
       <c r="P46" t="n">
         <v>63.604529018321</v>
